--- a/tests/regression_data/performance_analysis_evaluate_cascade_throat.xlsx
+++ b/tests/regression_data/performance_analysis_evaluate_cascade_throat.xlsx
@@ -688,40 +688,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015418723156223</v>
+        <v>2.015418723086914</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999961726</v>
+        <v>2.299999999961951</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740741523287991</v>
+        <v>2.74074152332184</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55740650654965</v>
+        <v>92.5574065038374</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08633224235712</v>
+        <v>79.08633223917843</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455429097750192</v>
+        <v>0.1455429097843235</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23187515213213</v>
+        <v>-78.23187514896276</v>
       </c>
       <c r="I2" t="n">
-        <v>136206.7714408174</v>
+        <v>136206.7714370251</v>
       </c>
       <c r="J2" t="n">
-        <v>83.71651594395662</v>
+        <v>83.71651594162576</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.33236352577659</v>
+        <v>-24.33236352728041</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2462140297853</v>
+        <v>135.2462140341082</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -736,13 +736,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372087.380022857</v>
+        <v>372087.3800248545</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7160580180534006</v>
+        <v>0.7160580180578224</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -759,40 +759,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069490739620782</v>
+        <v>2.069490739661347</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999768785</v>
+        <v>2.39999999992203</v>
       </c>
       <c r="D3" t="n">
-        <v>2.743090699646048</v>
+        <v>2.743090699585241</v>
       </c>
       <c r="E3" t="n">
-        <v>92.52973870701703</v>
+        <v>92.52973871254721</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20283649317797</v>
+        <v>78.20283649671754</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548356497493553</v>
+        <v>0.1548356497616148</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35767214292733</v>
+        <v>-77.35767214647915</v>
       </c>
       <c r="I3" t="n">
-        <v>140861.8583210457</v>
+        <v>140861.8583242987</v>
       </c>
       <c r="J3" t="n">
-        <v>86.57766338109752</v>
+        <v>86.57766338309695</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.83045650058402</v>
+        <v>-26.83045650175908</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5987926271967</v>
+        <v>142.598792632842</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -807,13 +807,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370432.9178705902</v>
+        <v>370432.917868266</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7037210756227711</v>
+        <v>0.7037210756149713</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.64649732603142</v>
+        <v>80.64649732495707</v>
       </c>
       <c r="D2" t="n">
-        <v>80.64649732603142</v>
+        <v>80.64649732495707</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.64649732603142</v>
+        <v>80.64649732495707</v>
       </c>
       <c r="H2" t="n">
-        <v>80.64649732603142</v>
+        <v>80.64649732495707</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3103,97 +3103,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3575835820117</v>
+        <v>292.3575835818979</v>
       </c>
       <c r="L2" t="n">
-        <v>132780.6069861838</v>
+        <v>132780.6069860028</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583004415638159</v>
+        <v>1.583004415636619</v>
       </c>
       <c r="N2" t="n">
-        <v>334653.6415476938</v>
+        <v>334653.6415476122</v>
       </c>
       <c r="O2" t="n">
-        <v>418532.5023231109</v>
+        <v>418532.5023229967</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687432.0723462661</v>
+        <v>-687432.0723459501</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131410303354</v>
+        <v>717.7131410303302</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647931650346</v>
+        <v>1006.64793165034</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576982504767</v>
+        <v>1.402576982504769</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980004170143</v>
+        <v>0.9994980004170135</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9112262376434</v>
+        <v>342.9112262375766</v>
       </c>
       <c r="W2" t="n">
-        <v>186142.4958998716</v>
+        <v>186142.495899618</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372228384312159e-06</v>
+        <v>5.372228384319479e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132714.6375719444</v>
+        <v>132714.6375717634</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534963876595009e-06</v>
+        <v>7.534963876605286e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433399881337661</v>
+        <v>0.003433399881338996</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817166078004847e-05</v>
+        <v>1.817166078004291e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582469259683552</v>
+        <v>0.02582469259682696</v>
       </c>
       <c r="AD2" t="n">
-        <v>132780.6069861838</v>
+        <v>132780.6069860028</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583004415638159</v>
+        <v>1.583004415636619</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583004415638159</v>
+        <v>1.583004415636619</v>
       </c>
       <c r="AG2" t="n">
-        <v>334653.6415476938</v>
+        <v>334653.6415476122</v>
       </c>
       <c r="AH2" t="n">
-        <v>418532.5023231109</v>
+        <v>418532.5023229967</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131410303354</v>
+        <v>717.7131410303302</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647931650346</v>
+        <v>1006.64793165034</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9112262376434</v>
+        <v>342.9112262375766</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980004170143</v>
+        <v>0.9994980004170135</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817166078004847e-05</v>
+        <v>1.817166078004291e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582469259683552</v>
+        <v>0.02582469259682696</v>
       </c>
       <c r="AP2" t="n">
         <v>295.6000000000945</v>
@@ -3382,16 +3382,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.2351818521979272</v>
+        <v>0.2351818521948399</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.2351818521979272</v>
+        <v>0.2351818521948399</v>
       </c>
       <c r="DB2" t="n">
-        <v>183785.2928214894</v>
+        <v>183785.2928189186</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.740741523290378</v>
+        <v>2.7407415232512</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310884894</v>
@@ -3400,343 +3400,343 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>268.7506812443599</v>
+        <v>268.7506812247261</v>
       </c>
       <c r="DG2" t="n">
-        <v>110.6475275650481</v>
+        <v>110.6475275578909</v>
       </c>
       <c r="DH2" t="n">
-        <v>244.9164210767613</v>
+        <v>244.9164210584503</v>
       </c>
       <c r="DI2" t="n">
-        <v>65.68765713599041</v>
+        <v>65.68765713577372</v>
       </c>
       <c r="DJ2" t="n">
-        <v>268.7506812443599</v>
+        <v>268.7506812247261</v>
       </c>
       <c r="DK2" t="n">
-        <v>110.6475275650481</v>
+        <v>110.6475275578909</v>
       </c>
       <c r="DL2" t="n">
-        <v>244.9164210767613</v>
+        <v>244.9164210584503</v>
       </c>
       <c r="DM2" t="n">
-        <v>65.68765713599041</v>
+        <v>65.68765713577372</v>
       </c>
       <c r="DN2" t="n">
-        <v>259.5633104262574</v>
+        <v>259.5633104315257</v>
       </c>
       <c r="DO2" t="n">
-        <v>85907.64607519201</v>
+        <v>85907.64608149233</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.153787745484845</v>
+        <v>1.153787745546019</v>
       </c>
       <c r="DQ2" t="n">
-        <v>311213.9044291042</v>
+        <v>311213.904432868</v>
       </c>
       <c r="DR2" t="n">
-        <v>385670.9667539358</v>
+        <v>385670.9667592124</v>
       </c>
       <c r="DS2" t="n">
-        <v>3788.611348758967</v>
+        <v>3788.611348758259</v>
       </c>
       <c r="DT2" t="n">
-        <v>-597713.5368484299</v>
+        <v>-597713.5368629291</v>
       </c>
       <c r="DU2" t="n">
-        <v>716.537091253658</v>
+        <v>716.5370912538</v>
       </c>
       <c r="DV2" t="n">
-        <v>1005.204413623018</v>
+        <v>1005.2044136232</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.402864451670332</v>
+        <v>1.402864451670309</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.9993241038539531</v>
+        <v>0.9993241038539745</v>
       </c>
       <c r="DY2" t="n">
-        <v>323.0833304611473</v>
+        <v>323.0833304644304</v>
       </c>
       <c r="DZ2" t="n">
-        <v>120435.6398100747</v>
+        <v>120435.6398189078</v>
       </c>
       <c r="EA2" t="n">
-        <v>8.30318999904834e-06</v>
+        <v>8.303189998439355e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>85849.80513739371</v>
+        <v>85849.80514369161</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.164825008512953e-05</v>
+        <v>1.164825008427502e-05</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.00386607668164672</v>
+        <v>0.003866076681568439</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.652841742869357e-05</v>
+        <v>1.652841742896395e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.02330669263499354</v>
+        <v>0.02330669263540567</v>
       </c>
       <c r="EG2" t="n">
-        <v>85907.64607519201</v>
+        <v>85907.64608149233</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.153787745484845</v>
+        <v>1.153787745546019</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.153787745484845</v>
+        <v>1.153787745546019</v>
       </c>
       <c r="EJ2" t="n">
-        <v>311213.9044291042</v>
+        <v>311213.904432868</v>
       </c>
       <c r="EK2" t="n">
-        <v>385670.9667539358</v>
+        <v>385670.9667592124</v>
       </c>
       <c r="EL2" t="n">
-        <v>3788.611348758967</v>
+        <v>3788.611348758259</v>
       </c>
       <c r="EM2" t="n">
-        <v>716.537091253658</v>
+        <v>716.5370912538</v>
       </c>
       <c r="EN2" t="n">
-        <v>1005.204413623018</v>
+        <v>1005.2044136232</v>
       </c>
       <c r="EO2" t="n">
-        <v>323.0833304611473</v>
+        <v>323.0833304644304</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.9993241038539531</v>
+        <v>0.9993241038539745</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.652841742869357e-05</v>
+        <v>1.652841742896395e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.02330669263499354</v>
+        <v>0.02330669263540567</v>
       </c>
       <c r="ES2" t="n">
-        <v>295.5937127363322</v>
+        <v>295.593712736333</v>
       </c>
       <c r="ET2" t="n">
-        <v>135288.284550414</v>
+        <v>135288.2845507472</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.595191426374285</v>
+        <v>1.59519142637821</v>
       </c>
       <c r="EV2" t="n">
-        <v>336974.3686010353</v>
+        <v>336974.3686010351</v>
       </c>
       <c r="EW2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="EX2" t="n">
-        <v>3788.611348764167</v>
+        <v>3788.61134876346</v>
       </c>
       <c r="EY2" t="n">
-        <v>-698105.2636076137</v>
+        <v>-698105.2636074077</v>
       </c>
       <c r="EZ2" t="n">
-        <v>717.8561732208121</v>
+        <v>717.8561732208129</v>
       </c>
       <c r="FA2" t="n">
-        <v>1006.777060645982</v>
+        <v>1006.777060645988</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.402477401745904</v>
+        <v>1.402477401745911</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9995302925606393</v>
+        <v>0.9995302925606382</v>
       </c>
       <c r="FD2" t="n">
-        <v>344.8027731289464</v>
+        <v>344.8027731289472</v>
       </c>
       <c r="FE2" t="n">
-        <v>189650.6374911639</v>
+        <v>189650.6374916315</v>
       </c>
       <c r="FF2" t="n">
-        <v>5.272853354086887e-06</v>
+        <v>5.272853354073887e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>135225.4498040918</v>
+        <v>135225.4498044246</v>
       </c>
       <c r="FH2" t="n">
-        <v>7.395057671826957e-06</v>
+        <v>7.395057671808756e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00339561982026575</v>
+        <v>0.003395619820265772</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.832925555050918e-05</v>
+        <v>1.832925555050927e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02606729576326937</v>
+        <v>0.02606729576326954</v>
       </c>
       <c r="FL2" t="n">
-        <v>135288.284550414</v>
+        <v>135288.2845507472</v>
       </c>
       <c r="FM2" t="n">
-        <v>1.595191426374285</v>
+        <v>1.59519142637821</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.595191426374285</v>
+        <v>1.59519142637821</v>
       </c>
       <c r="FO2" t="n">
-        <v>336974.3686010353</v>
+        <v>336974.3686010351</v>
       </c>
       <c r="FP2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="FQ2" t="n">
-        <v>3788.611348764167</v>
+        <v>3788.61134876346</v>
       </c>
       <c r="FR2" t="n">
-        <v>717.8561732208121</v>
+        <v>717.8561732208129</v>
       </c>
       <c r="FS2" t="n">
-        <v>1006.777060645982</v>
+        <v>1006.777060645988</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027731289464</v>
+        <v>344.8027731289472</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.9995302925606393</v>
+        <v>0.9995302925606382</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.832925555050918e-05</v>
+        <v>1.832925555050927e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02606729576326937</v>
+        <v>0.02606729576326954</v>
       </c>
       <c r="FX2" t="n">
-        <v>295.5937127363322</v>
+        <v>295.593712736333</v>
       </c>
       <c r="FY2" t="n">
-        <v>135288.284550414</v>
+        <v>135288.2845507472</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.595191426374285</v>
+        <v>1.59519142637821</v>
       </c>
       <c r="GA2" t="n">
-        <v>336974.3686010353</v>
+        <v>336974.3686010351</v>
       </c>
       <c r="GB2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GC2" t="n">
-        <v>3788.611348764167</v>
+        <v>3788.61134876346</v>
       </c>
       <c r="GD2" t="n">
-        <v>-698105.2636076137</v>
+        <v>-698105.2636074077</v>
       </c>
       <c r="GE2" t="n">
-        <v>717.8561732208121</v>
+        <v>717.8561732208129</v>
       </c>
       <c r="GF2" t="n">
-        <v>1006.777060645982</v>
+        <v>1006.777060645988</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.402477401745904</v>
+        <v>1.402477401745911</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.9995302925606393</v>
+        <v>0.9995302925606382</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8027731289464</v>
+        <v>344.8027731289472</v>
       </c>
       <c r="GJ2" t="n">
-        <v>189650.6374911639</v>
+        <v>189650.6374916315</v>
       </c>
       <c r="GK2" t="n">
-        <v>5.272853354086887e-06</v>
+        <v>5.272853354073887e-06</v>
       </c>
       <c r="GL2" t="n">
-        <v>135225.4498040918</v>
+        <v>135225.4498044246</v>
       </c>
       <c r="GM2" t="n">
-        <v>7.395057671826957e-06</v>
+        <v>7.395057671808756e-06</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.00339561982026575</v>
+        <v>0.003395619820265772</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.832925555050918e-05</v>
+        <v>1.832925555050927e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.02606729576326937</v>
+        <v>0.02606729576326954</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135288.284550414</v>
+        <v>135288.2845507472</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595191426374285</v>
+        <v>1.59519142637821</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595191426374285</v>
+        <v>1.59519142637821</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3686010353</v>
+        <v>336974.3686010351</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.611348764167</v>
+        <v>3788.61134876346</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561732208121</v>
+        <v>717.8561732208129</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777060645982</v>
+        <v>1006.777060645988</v>
       </c>
       <c r="GY2" t="n">
-        <v>344.8027731289464</v>
+        <v>344.8027731289472</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302925606393</v>
+        <v>0.9995302925606382</v>
       </c>
       <c r="HA2" t="n">
-        <v>1.832925555050918e-05</v>
+        <v>1.832925555050927e-05</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.02606729576326937</v>
+        <v>0.02606729576326954</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.8318308495234444</v>
+        <v>0.8318308494542215</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.8318308495234444</v>
+        <v>0.8318308494542215</v>
       </c>
       <c r="HE2" t="n">
-        <v>490774.4701926032</v>
+        <v>490774.4701747413</v>
       </c>
       <c r="HF2" t="n">
-        <v>2.740741523288025</v>
+        <v>2.740741523256055</v>
       </c>
       <c r="HG2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.01593129418765305</v>
+        <v>0.01593129418743291</v>
       </c>
       <c r="HI2" t="n">
-        <v>-1.788191703853556e-07</v>
+        <v>-1.788191704073032e-07</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.01379057938680481</v>
+        <v>0.01379057938679744</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.02519285335547064</v>
+        <v>0.02519285335557222</v>
       </c>
       <c r="HL2" t="n">
         <v>0</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.05491454811075811</v>
+        <v>0.05491454811063216</v>
       </c>
       <c r="HN2" t="n">
-        <v>1.076222444496011e-14</v>
+        <v>2.661759701538813e-14</v>
       </c>
       <c r="HO2" t="n">
         <v>0</v>
@@ -3745,664 +3745,664 @@
         <v>165.3032</v>
       </c>
       <c r="HQ2" t="n">
-        <v>268.7506812443599</v>
+        <v>268.7506812247261</v>
       </c>
       <c r="HR2" t="n">
-        <v>110.6475275650481</v>
+        <v>110.6475275578909</v>
       </c>
       <c r="HS2" t="n">
-        <v>244.9164210767613</v>
+        <v>244.9164210584503</v>
       </c>
       <c r="HT2" t="n">
-        <v>65.68765713599041</v>
+        <v>65.68765713577372</v>
       </c>
       <c r="HU2" t="n">
-        <v>136.3126565160967</v>
+        <v>136.3126564995925</v>
       </c>
       <c r="HV2" t="n">
-        <v>110.6475275650481</v>
+        <v>110.6475275578909</v>
       </c>
       <c r="HW2" t="n">
-        <v>79.61322107676133</v>
+        <v>79.61322105845025</v>
       </c>
       <c r="HX2" t="n">
-        <v>35.7358088893883</v>
+        <v>35.73580888489782</v>
       </c>
       <c r="HY2" t="n">
-        <v>259.5633104261574</v>
+        <v>259.5633104316258</v>
       </c>
       <c r="HZ2" t="n">
-        <v>85907.64607723118</v>
+        <v>85907.64608160809</v>
       </c>
       <c r="IA2" t="n">
-        <v>1.153787745512697</v>
+        <v>1.153787745547128</v>
       </c>
       <c r="IB2" t="n">
-        <v>311213.9044290273</v>
+        <v>311213.9044329395</v>
       </c>
       <c r="IC2" t="n">
-        <v>385670.9667538289</v>
+        <v>385670.9667593126</v>
       </c>
       <c r="ID2" t="n">
-        <v>3788.611348751746</v>
+        <v>3788.611348758259</v>
       </c>
       <c r="IE2" t="n">
-        <v>-597713.5368462835</v>
+        <v>-597713.5368632077</v>
       </c>
       <c r="IF2" t="n">
-        <v>716.537091253663</v>
+        <v>716.5370912538027</v>
       </c>
       <c r="IG2" t="n">
-        <v>1005.204413623063</v>
+        <v>1005.204413623204</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.402864451670385</v>
+        <v>1.402864451670309</v>
       </c>
       <c r="II2" t="n">
-        <v>0.9993241038539358</v>
+        <v>0.999324103853975</v>
       </c>
       <c r="IJ2" t="n">
-        <v>323.0833304610856</v>
+        <v>323.0833304644927</v>
       </c>
       <c r="IK2" t="n">
-        <v>120435.6398129359</v>
+        <v>120435.6398190701</v>
       </c>
       <c r="IL2" t="n">
-        <v>8.303189998851079e-06</v>
+        <v>8.303189998428166e-06</v>
       </c>
       <c r="IM2" t="n">
-        <v>85849.80513942997</v>
+        <v>85849.80514380735</v>
       </c>
       <c r="IN2" t="n">
-        <v>1.164825008485325e-05</v>
+        <v>1.164825008425932e-05</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.003866076681648546</v>
+        <v>0.003866076681566951</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.652841742868876e-05</v>
+        <v>1.652841742896909e-05</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.02330669263498651</v>
+        <v>0.02330669263541351</v>
       </c>
       <c r="IR2" t="n">
-        <v>85907.64607723118</v>
+        <v>85907.64608160809</v>
       </c>
       <c r="IS2" t="n">
-        <v>1.153787745512697</v>
+        <v>1.153787745547128</v>
       </c>
       <c r="IT2" t="n">
-        <v>1.153787745512697</v>
+        <v>1.153787745547128</v>
       </c>
       <c r="IU2" t="n">
-        <v>311213.9044290273</v>
+        <v>311213.9044329395</v>
       </c>
       <c r="IV2" t="n">
-        <v>385670.9667538289</v>
+        <v>385670.9667593126</v>
       </c>
       <c r="IW2" t="n">
-        <v>3788.611348751746</v>
+        <v>3788.611348758259</v>
       </c>
       <c r="IX2" t="n">
-        <v>716.537091253663</v>
+        <v>716.5370912538027</v>
       </c>
       <c r="IY2" t="n">
-        <v>1005.204413623063</v>
+        <v>1005.204413623204</v>
       </c>
       <c r="IZ2" t="n">
-        <v>323.0833304610856</v>
+        <v>323.0833304644927</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.9993241038539358</v>
+        <v>0.999324103853975</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.652841742868876e-05</v>
+        <v>1.652841742896909e-05</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.02330669263498651</v>
+        <v>0.02330669263541351</v>
       </c>
       <c r="JD2" t="n">
-        <v>295.5937127364321</v>
+        <v>295.593712736433</v>
       </c>
       <c r="JE2" t="n">
-        <v>135288.2845505729</v>
+        <v>135288.2845509075</v>
       </c>
       <c r="JF2" t="n">
-        <v>1.595191426375617</v>
+        <v>1.595191426379559</v>
       </c>
       <c r="JG2" t="n">
         <v>336974.3686011067</v>
       </c>
       <c r="JH2" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.43108869</v>
       </c>
       <c r="JI2" t="n">
-        <v>3788.611348764169</v>
+        <v>3788.611348763459</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-698105.2636078924</v>
+        <v>-698105.263607686</v>
       </c>
       <c r="JK2" t="n">
-        <v>717.8561732208168</v>
+        <v>717.8561732208176</v>
       </c>
       <c r="JL2" t="n">
-        <v>1006.777060645988</v>
+        <v>1006.777060645993</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.402477401745903</v>
+        <v>1.402477401745909</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.99953029256064</v>
+        <v>0.9995302925606389</v>
       </c>
       <c r="JO2" t="n">
-        <v>344.8027731290047</v>
+        <v>344.8027731290056</v>
       </c>
       <c r="JP2" t="n">
-        <v>189650.6374913864</v>
+        <v>189650.6374918561</v>
       </c>
       <c r="JQ2" t="n">
-        <v>5.2728533540807e-06</v>
+        <v>5.272853354067641e-06</v>
       </c>
       <c r="JR2" t="n">
-        <v>135225.4498042506</v>
+        <v>135225.4498045849</v>
       </c>
       <c r="JS2" t="n">
-        <v>7.395057671818269e-06</v>
+        <v>7.39505767179999e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.003395619820264604</v>
+        <v>0.003395619820264625</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.832925555051405e-05</v>
+        <v>1.832925555051414e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.02606729576327688</v>
+        <v>0.02606729576327705</v>
       </c>
       <c r="JW2" t="n">
-        <v>135288.2845505729</v>
+        <v>135288.2845509075</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.595191426375617</v>
+        <v>1.595191426379559</v>
       </c>
       <c r="JY2" t="n">
-        <v>1.595191426375617</v>
+        <v>1.595191426379559</v>
       </c>
       <c r="JZ2" t="n">
         <v>336974.3686011067</v>
       </c>
       <c r="KA2" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.43108869</v>
       </c>
       <c r="KB2" t="n">
-        <v>3788.611348764169</v>
+        <v>3788.611348763459</v>
       </c>
       <c r="KC2" t="n">
-        <v>717.8561732208168</v>
+        <v>717.8561732208176</v>
       </c>
       <c r="KD2" t="n">
-        <v>1006.777060645988</v>
+        <v>1006.777060645993</v>
       </c>
       <c r="KE2" t="n">
-        <v>344.8027731290047</v>
+        <v>344.8027731290056</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.99953029256064</v>
+        <v>0.9995302925606389</v>
       </c>
       <c r="KG2" t="n">
-        <v>1.832925555051405e-05</v>
+        <v>1.832925555051414e-05</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.02606729576327688</v>
+        <v>0.02606729576327705</v>
       </c>
       <c r="KI2" t="n">
-        <v>268.836856872761</v>
+        <v>268.8368568757824</v>
       </c>
       <c r="KJ2" t="n">
-        <v>97112.52938230128</v>
+        <v>97112.52938635333</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.259229342743069</v>
+        <v>1.259229342781441</v>
       </c>
       <c r="KL2" t="n">
-        <v>317840.9314120412</v>
+        <v>317840.9314142005</v>
       </c>
       <c r="KM2" t="n">
-        <v>394961.5369172737</v>
+        <v>394961.5369203007</v>
       </c>
       <c r="KN2" t="n">
-        <v>3788.611348758969</v>
+        <v>3788.611348758259</v>
       </c>
       <c r="KO2" t="n">
-        <v>-623556.8299955589</v>
+        <v>-623556.8300037885</v>
       </c>
       <c r="KP2" t="n">
-        <v>716.8076607247298</v>
+        <v>716.807660724826</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1005.539531737256</v>
+        <v>1005.539531737378</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.402802434785091</v>
+        <v>1.402802434785072</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9993678904089065</v>
+        <v>0.9993678904089202</v>
       </c>
       <c r="KT2" t="n">
-        <v>328.8113932530394</v>
+        <v>328.8113932548895</v>
       </c>
       <c r="KU2" t="n">
-        <v>136144.0136410866</v>
+        <v>136144.0136467673</v>
       </c>
       <c r="KV2" t="n">
-        <v>7.34516320810313e-06</v>
+        <v>7.345163207796647e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>97051.45233936225</v>
+        <v>97051.45234341316</v>
       </c>
       <c r="KX2" t="n">
-        <v>1.030381283222094e-05</v>
+        <v>1.030381283179086e-05</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003732968765661873</v>
+        <v>0.003732968765620029</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.700101343078598e-05</v>
+        <v>1.700101343093893e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02402806485388369</v>
+        <v>0.02402806485411755</v>
       </c>
       <c r="LB2" t="n">
-        <v>97112.52938230128</v>
+        <v>97112.52938635333</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.259229342743069</v>
+        <v>1.259229342781441</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.259229342743069</v>
+        <v>1.259229342781441</v>
       </c>
       <c r="LE2" t="n">
-        <v>317840.9314120412</v>
+        <v>317840.9314142005</v>
       </c>
       <c r="LF2" t="n">
-        <v>394961.5369172737</v>
+        <v>394961.5369203007</v>
       </c>
       <c r="LG2" t="n">
-        <v>3788.611348758969</v>
+        <v>3788.611348758259</v>
       </c>
       <c r="LH2" t="n">
-        <v>716.8076607247298</v>
+        <v>716.807660724826</v>
       </c>
       <c r="LI2" t="n">
-        <v>1005.539531737256</v>
+        <v>1005.539531737378</v>
       </c>
       <c r="LJ2" t="n">
-        <v>328.8113932530394</v>
+        <v>328.8113932548895</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9993678904089065</v>
+        <v>0.9993678904089202</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.700101343078598e-05</v>
+        <v>1.700101343093893e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02402806485388369</v>
+        <v>0.02402806485411755</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.8318308495236034</v>
+        <v>0.8318308494540608</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.4219117597975706</v>
+        <v>0.4219117597420379</v>
       </c>
       <c r="LP2" t="n">
-        <v>247973.4831754151</v>
+        <v>247973.4831485858</v>
       </c>
       <c r="LQ2" t="n">
-        <v>2.740741523354184</v>
+        <v>2.740741523258691</v>
       </c>
       <c r="LR2" t="n">
-        <v>381298.9629520535</v>
+        <v>381298.9629550804</v>
       </c>
       <c r="LS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT2" t="n">
-        <v>135.2462140297853</v>
+        <v>135.2462140341082</v>
       </c>
       <c r="LU2" t="n">
-        <v>123.2323857968805</v>
+        <v>123.2323857993569</v>
       </c>
       <c r="LV2" t="n">
-        <v>-55.72537572954792</v>
+        <v>-55.72537573456353</v>
       </c>
       <c r="LW2" t="n">
-        <v>-24.33236352577659</v>
+        <v>-24.33236352728041</v>
       </c>
       <c r="LX2" t="n">
-        <v>253.0609653783524</v>
+        <v>253.0609653839391</v>
       </c>
       <c r="LY2" t="n">
-        <v>123.2323857968805</v>
+        <v>123.2323857993569</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-221.0285757295479</v>
+        <v>-221.0285757345635</v>
       </c>
       <c r="MA2" t="n">
-        <v>-60.85856243531174</v>
+        <v>-60.85856243537503</v>
       </c>
       <c r="MB2" t="n">
-        <v>236.8583537829345</v>
+        <v>236.8583537847401</v>
       </c>
       <c r="MC2" t="n">
-        <v>59999.99999999935</v>
+        <v>59999.9999999935</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.8831259353209903</v>
+        <v>0.8831259353141506</v>
       </c>
       <c r="ME2" t="n">
-        <v>295001.1307569935</v>
+        <v>295001.1307582876</v>
       </c>
       <c r="MF2" t="n">
-        <v>362941.6108179615</v>
+        <v>362941.610819775</v>
       </c>
       <c r="MG2" t="n">
-        <v>3799.932194877682</v>
+        <v>3799.932194885367</v>
       </c>
       <c r="MH2" t="n">
-        <v>-537104.0733475394</v>
+        <v>-537104.0733544071</v>
       </c>
       <c r="MI2" t="n">
-        <v>716.0325652379698</v>
+        <v>716.0325652379931</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1004.487930097625</v>
+        <v>1004.487930097622</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.402852298713241</v>
+        <v>1.402852298713192</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.9992718991515727</v>
+        <v>0.999271899151597</v>
       </c>
       <c r="MM2" t="n">
-        <v>308.6117180234345</v>
+        <v>308.6117180246129</v>
       </c>
       <c r="MN2" t="n">
-        <v>84109.96720886405</v>
+        <v>84109.96720885491</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.188919735893814e-05</v>
+        <v>1.188919735893943e-05</v>
       </c>
       <c r="MP2" t="n">
-        <v>59956.39547086565</v>
+        <v>59956.39547086124</v>
       </c>
       <c r="MQ2" t="n">
-        <v>1.667878784484177e-05</v>
+        <v>1.667878784484299e-05</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.004235342330628209</v>
+        <v>0.00423534233059563</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.534219067922254e-05</v>
+        <v>1.534219067931826e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02150526509053043</v>
+        <v>0.02150526509067495</v>
       </c>
       <c r="MU2" t="n">
-        <v>59999.99999999935</v>
+        <v>59999.9999999935</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.8831259353209903</v>
+        <v>0.8831259353141506</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8831259353209903</v>
+        <v>0.8831259353141506</v>
       </c>
       <c r="MX2" t="n">
-        <v>295001.1307569935</v>
+        <v>295001.1307582876</v>
       </c>
       <c r="MY2" t="n">
-        <v>362941.6108179615</v>
+        <v>362941.610819775</v>
       </c>
       <c r="MZ2" t="n">
-        <v>3799.932194877682</v>
+        <v>3799.932194885367</v>
       </c>
       <c r="NA2" t="n">
-        <v>716.0325652379698</v>
+        <v>716.0325652379931</v>
       </c>
       <c r="NB2" t="n">
-        <v>1004.487930097625</v>
+        <v>1004.487930097622</v>
       </c>
       <c r="NC2" t="n">
-        <v>308.6117180234345</v>
+        <v>308.6117180246129</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.9992718991515727</v>
+        <v>0.999271899151597</v>
       </c>
       <c r="NE2" t="n">
-        <v>1.534219067922254e-05</v>
+        <v>1.534219067931826e-05</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.02150526509053043</v>
+        <v>0.02150526509067495</v>
       </c>
       <c r="NG2" t="n">
-        <v>245.9915038232347</v>
+        <v>245.9915038252305</v>
       </c>
       <c r="NH2" t="n">
-        <v>68472.12363969152</v>
+        <v>68472.12364204624</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.9703801925408159</v>
+        <v>0.9703801925663111</v>
       </c>
       <c r="NJ2" t="n">
-        <v>301525.2187524317</v>
+        <v>301525.2187538563</v>
       </c>
       <c r="NK2" t="n">
-        <v>372087.380022857</v>
+        <v>372087.3800248545</v>
       </c>
       <c r="NL2" t="n">
-        <v>3799.932194886252</v>
+        <v>3799.932194884507</v>
       </c>
       <c r="NM2" t="n">
-        <v>-562663.6550235369</v>
+        <v>-562663.6550286943</v>
       </c>
       <c r="NN2" t="n">
-        <v>716.2042443855561</v>
+        <v>716.2042443855992</v>
       </c>
       <c r="NO2" t="n">
-        <v>1004.719253170648</v>
+        <v>1004.719253170714</v>
       </c>
       <c r="NP2" t="n">
-        <v>1.402839010026552</v>
+        <v>1.402839010026559</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.999299193522074</v>
+        <v>0.9992991935220763</v>
       </c>
       <c r="NR2" t="n">
-        <v>314.5125652817419</v>
+        <v>314.5125652830193</v>
       </c>
       <c r="NS2" t="n">
-        <v>95988.21705269456</v>
+        <v>95988.21705599621</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.041794535522033e-05</v>
+        <v>1.041794535486199e-05</v>
       </c>
       <c r="NU2" t="n">
-        <v>68424.25707200554</v>
+        <v>68424.25707435876</v>
       </c>
       <c r="NV2" t="n">
-        <v>1.4614700148628e-05</v>
+        <v>1.461470014812538e-05</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.004078402343579654</v>
+        <v>0.004078402343546711</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.582421116889403e-05</v>
+        <v>1.582421116899867e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.02223543600598426</v>
+        <v>0.02223543600614307</v>
       </c>
       <c r="NZ2" t="n">
-        <v>68472.12363969152</v>
+        <v>68472.12364204624</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.9703801925408159</v>
+        <v>0.9703801925663111</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.9703801925408159</v>
+        <v>0.9703801925663111</v>
       </c>
       <c r="OC2" t="n">
-        <v>301525.2187524317</v>
+        <v>301525.2187538563</v>
       </c>
       <c r="OD2" t="n">
-        <v>372087.380022857</v>
+        <v>372087.3800248545</v>
       </c>
       <c r="OE2" t="n">
-        <v>3799.932194886252</v>
+        <v>3799.932194884507</v>
       </c>
       <c r="OF2" t="n">
-        <v>716.2042443855561</v>
+        <v>716.2042443855992</v>
       </c>
       <c r="OG2" t="n">
-        <v>1004.719253170648</v>
+        <v>1004.719253170714</v>
       </c>
       <c r="OH2" t="n">
-        <v>314.5125652817419</v>
+        <v>314.5125652830193</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.999299193522074</v>
+        <v>0.9992991935220763</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1.582421116889403e-05</v>
+        <v>1.582421116899867e-05</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.02223543600598426</v>
+        <v>0.02223543600614307</v>
       </c>
       <c r="OL2" t="n">
-        <v>268.8262919567894</v>
+        <v>268.8262919600057</v>
       </c>
       <c r="OM2" t="n">
-        <v>93354.79481302504</v>
+        <v>93354.79481749229</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.210522165928014</v>
+        <v>1.210522165971443</v>
       </c>
       <c r="OO2" t="n">
-        <v>317842.0942165282</v>
+        <v>317842.0942188257</v>
       </c>
       <c r="OP2" t="n">
-        <v>394961.5369170732</v>
+        <v>394961.5369202943</v>
       </c>
       <c r="OQ2" t="n">
-        <v>3799.932194877681</v>
+        <v>3799.932194875936</v>
       </c>
       <c r="OR2" t="n">
-        <v>-626560.1447191177</v>
+        <v>-626560.1447276495</v>
       </c>
       <c r="OS2" t="n">
-        <v>716.7953002662429</v>
+        <v>716.795300266346</v>
       </c>
       <c r="OT2" t="n">
-        <v>1005.462111580936</v>
+        <v>1005.462111581071</v>
       </c>
       <c r="OU2" t="n">
-        <v>1.402718616050457</v>
+        <v>1.402718616050443</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.9993920969211033</v>
+        <v>0.9993920969211153</v>
       </c>
       <c r="OW2" t="n">
-        <v>328.8030333835624</v>
+        <v>328.8030333855318</v>
       </c>
       <c r="OX2" t="n">
-        <v>130871.2881699624</v>
+        <v>130871.2881762252</v>
       </c>
       <c r="OY2" t="n">
-        <v>7.641095415071498e-06</v>
+        <v>7.641095414705833e-06</v>
       </c>
       <c r="OZ2" t="n">
-        <v>93298.31847419842</v>
+        <v>93298.31847866412</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.071830678573858e-05</v>
+        <v>1.071830678522555e-05</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.003732604897047308</v>
+        <v>0.003732604897002807</v>
       </c>
       <c r="PC2" t="n">
-        <v>1.699990954569044e-05</v>
+        <v>1.699990954585329e-05</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.02402592032248396</v>
+        <v>0.02402592032273297</v>
       </c>
       <c r="PE2" t="n">
-        <v>93354.79481302504</v>
+        <v>93354.79481749229</v>
       </c>
       <c r="PF2" t="n">
-        <v>1.210522165928014</v>
+        <v>1.210522165971443</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.210522165928014</v>
+        <v>1.210522165971443</v>
       </c>
       <c r="PH2" t="n">
-        <v>317842.0942165282</v>
+        <v>317842.0942188257</v>
       </c>
       <c r="PI2" t="n">
-        <v>394961.5369170732</v>
+        <v>394961.5369202943</v>
       </c>
       <c r="PJ2" t="n">
-        <v>3799.932194877681</v>
+        <v>3799.932194875936</v>
       </c>
       <c r="PK2" t="n">
-        <v>716.7953002662429</v>
+        <v>716.795300266346</v>
       </c>
       <c r="PL2" t="n">
-        <v>1005.462111580936</v>
+        <v>1005.462111581071</v>
       </c>
       <c r="PM2" t="n">
-        <v>328.8030333835624</v>
+        <v>328.8030333855318</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.9993920969211033</v>
+        <v>0.9993920969211153</v>
       </c>
       <c r="PO2" t="n">
-        <v>1.699990954569044e-05</v>
+        <v>1.699990954585329e-05</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.02402592032248396</v>
+        <v>0.02402592032273297</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.4382406957713618</v>
+        <v>0.4382406957836964</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.8199979151768183</v>
+        <v>0.81999791519179</v>
       </c>
       <c r="PS2" t="n">
-        <v>379607.5442674303</v>
+        <v>379607.5442705022</v>
       </c>
       <c r="PT2" t="n">
-        <v>2.740741523287991</v>
+        <v>2.74074152332184</v>
       </c>
       <c r="PU2" t="n">
-        <v>381298.9629520535</v>
+        <v>381298.9629550804</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02448664324590142</v>
+        <v>0.02448664324237261</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.001921552659771436</v>
+        <v>0.001921552657218087</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.0118891704064125</v>
+        <v>0.01188917040661857</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.03198686093141916</v>
+        <v>0.03198686092964996</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.04237527463798446</v>
+        <v>0.04237527463505394</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.112659501881489</v>
+        <v>0.1126595018709132</v>
       </c>
       <c r="QB2" t="n">
-        <v>8.439110521507587e-12</v>
+        <v>-8.541292673136525e-12</v>
       </c>
       <c r="QC2" t="n">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.71967492375262</v>
+        <v>80.71967492434979</v>
       </c>
       <c r="D3" t="n">
-        <v>80.71967492375262</v>
+        <v>80.71967492434979</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4428,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.71967492375262</v>
+        <v>80.71967492434979</v>
       </c>
       <c r="H3" t="n">
-        <v>80.71967492375262</v>
+        <v>80.71967492434979</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4440,97 +4440,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3516962046946</v>
+        <v>292.3516962047466</v>
       </c>
       <c r="L3" t="n">
-        <v>132771.2608546707</v>
+        <v>132771.2608547532</v>
       </c>
       <c r="M3" t="n">
-        <v>1.58292493289302</v>
+        <v>1.582924932893721</v>
       </c>
       <c r="N3" t="n">
-        <v>334649.4299219022</v>
+        <v>334649.4299219394</v>
       </c>
       <c r="O3" t="n">
-        <v>418526.5981284907</v>
+        <v>418526.598128543</v>
       </c>
       <c r="P3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687415.7050791014</v>
+        <v>-687415.7050792458</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7128745544893</v>
+        <v>717.7128745544918</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647622448148</v>
+        <v>1006.64762244815</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577072444201</v>
+        <v>1.4025770724442</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979592980675</v>
+        <v>0.999497959298068</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9077703132006</v>
+        <v>342.9077703132311</v>
       </c>
       <c r="W3" t="n">
-        <v>186129.3979226289</v>
+        <v>186129.3979227444</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372606429510317e-06</v>
+        <v>5.372606429506983e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132705.2905536738</v>
+        <v>132705.2905537562</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535494597297471e-06</v>
+        <v>7.53549459729279e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433468911435084</v>
+        <v>0.003433468911434475</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817137271404337e-05</v>
+        <v>1.817137271404591e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582424888572884</v>
+        <v>0.02582424888573276</v>
       </c>
       <c r="AD3" t="n">
-        <v>132771.2608546707</v>
+        <v>132771.2608547532</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.58292493289302</v>
+        <v>1.582924932893721</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.58292493289302</v>
+        <v>1.582924932893721</v>
       </c>
       <c r="AG3" t="n">
-        <v>334649.4299219022</v>
+        <v>334649.4299219394</v>
       </c>
       <c r="AH3" t="n">
-        <v>418526.5981284907</v>
+        <v>418526.598128543</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7128745544893</v>
+        <v>717.7128745544918</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647622448148</v>
+        <v>1006.64762244815</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9077703132006</v>
+        <v>342.9077703132311</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979592980675</v>
+        <v>0.999497959298068</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817137271404337e-05</v>
+        <v>1.817137271404591e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582424888572884</v>
+        <v>0.02582424888573276</v>
       </c>
       <c r="AP3" t="n">
         <v>295.6000000000945</v>
@@ -4719,16 +4719,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2353976255773556</v>
+        <v>0.2353976255790761</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2353976255773556</v>
+        <v>0.2353976255790761</v>
       </c>
       <c r="DB3" t="n">
-        <v>183945.7369935619</v>
+        <v>183945.7369949784</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.74309069934839</v>
+        <v>2.743090699369898</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
@@ -4737,343 +4737,343 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>270.221987986998</v>
+        <v>270.2219879946697</v>
       </c>
       <c r="DG3" t="n">
-        <v>111.184721803384</v>
+        <v>111.1847218063461</v>
       </c>
       <c r="DH3" t="n">
-        <v>246.2882060293375</v>
+        <v>246.2882060364175</v>
       </c>
       <c r="DI3" t="n">
-        <v>65.70360738392313</v>
+        <v>65.70360738396836</v>
       </c>
       <c r="DJ3" t="n">
-        <v>270.221987986998</v>
+        <v>270.2219879946697</v>
       </c>
       <c r="DK3" t="n">
-        <v>111.184721803384</v>
+        <v>111.1847218063461</v>
       </c>
       <c r="DL3" t="n">
-        <v>246.2882060293375</v>
+        <v>246.2882060364175</v>
       </c>
       <c r="DM3" t="n">
-        <v>65.70360738392313</v>
+        <v>65.70360738396835</v>
       </c>
       <c r="DN3" t="n">
-        <v>259.1674391470537</v>
+        <v>259.1674391451782</v>
       </c>
       <c r="DO3" t="n">
-        <v>85435.22013503389</v>
+        <v>85435.22013085836</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.149197335241565</v>
+        <v>1.149197335193707</v>
       </c>
       <c r="DQ3" t="n">
-        <v>310931.0845183613</v>
+        <v>310931.0845170261</v>
       </c>
       <c r="DR3" t="n">
-        <v>385274.4696925665</v>
+        <v>385274.469690694</v>
       </c>
       <c r="DS3" t="n">
-        <v>3788.664462882942</v>
+        <v>3788.664462889737</v>
       </c>
       <c r="DT3" t="n">
-        <v>-596623.9969402533</v>
+        <v>-596623.9969367811</v>
       </c>
       <c r="DU3" t="n">
-        <v>716.5264444959647</v>
+        <v>716.5264444959074</v>
       </c>
       <c r="DV3" t="n">
-        <v>1005.190725460519</v>
+        <v>1005.19072546041</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.402866193120915</v>
+        <v>1.402866193120876</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.9993224981992428</v>
+        <v>0.9993224981992506</v>
       </c>
       <c r="DY3" t="n">
-        <v>322.8365400309107</v>
+        <v>322.8365400297405</v>
       </c>
       <c r="DZ3" t="n">
-        <v>119773.2898404675</v>
+        <v>119773.2898346113</v>
       </c>
       <c r="EA3" t="n">
-        <v>8.349106894633637e-06</v>
+        <v>8.349106895041856e-06</v>
       </c>
       <c r="EB3" t="n">
-        <v>85377.55805064442</v>
+        <v>85377.55804647238</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.171267980523428e-05</v>
+        <v>1.171267980580663e-05</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.003871967879574236</v>
+        <v>0.003871967879601883</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.650809359943526e-05</v>
+        <v>1.650809359933864e-05</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.02327571726310545</v>
+        <v>0.02327571726295795</v>
       </c>
       <c r="EG3" t="n">
-        <v>85435.22013503389</v>
+        <v>85435.22013085836</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.149197335241565</v>
+        <v>1.149197335193707</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.149197335241565</v>
+        <v>1.149197335193707</v>
       </c>
       <c r="EJ3" t="n">
-        <v>310931.0845183613</v>
+        <v>310931.0845170261</v>
       </c>
       <c r="EK3" t="n">
-        <v>385274.4696925665</v>
+        <v>385274.469690694</v>
       </c>
       <c r="EL3" t="n">
-        <v>3788.664462882942</v>
+        <v>3788.664462889737</v>
       </c>
       <c r="EM3" t="n">
-        <v>716.5264444959647</v>
+        <v>716.5264444959074</v>
       </c>
       <c r="EN3" t="n">
-        <v>1005.190725460519</v>
+        <v>1005.19072546041</v>
       </c>
       <c r="EO3" t="n">
-        <v>322.8365400309107</v>
+        <v>322.8365400297405</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.9993224981992428</v>
+        <v>0.9993224981992506</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.650809359943526e-05</v>
+        <v>1.650809359933864e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.02327571726310545</v>
+        <v>0.02327571726295795</v>
       </c>
       <c r="ES3" t="n">
-        <v>295.5936546697175</v>
+        <v>295.5936546696179</v>
       </c>
       <c r="ET3" t="n">
-        <v>135263.2420398995</v>
+        <v>135263.2420399536</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.594896326076765</v>
+        <v>1.594896326077943</v>
       </c>
       <c r="EV3" t="n">
-        <v>336974.3780285084</v>
+        <v>336974.3780284366</v>
       </c>
       <c r="EW3" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="EX3" t="n">
-        <v>3788.664462895394</v>
+        <v>3788.664462894938</v>
       </c>
       <c r="EY3" t="n">
-        <v>-698120.7438159419</v>
+        <v>-698120.7438155303</v>
       </c>
       <c r="EZ3" t="n">
-        <v>717.8561079924883</v>
+        <v>717.8561079924843</v>
       </c>
       <c r="FA3" t="n">
-        <v>1006.776649474757</v>
+        <v>1006.776649474755</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.402476956405993</v>
+        <v>1.402476956405998</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9995303778013892</v>
+        <v>0.9995303778013878</v>
       </c>
       <c r="FD3" t="n">
-        <v>344.802713589367</v>
+        <v>344.8027135893091</v>
       </c>
       <c r="FE3" t="n">
-        <v>189615.4878413893</v>
+        <v>189615.4878414656</v>
       </c>
       <c r="FF3" t="n">
-        <v>5.273830800343093e-06</v>
+        <v>5.27383080034097e-06</v>
       </c>
       <c r="FG3" t="n">
-        <v>135200.4301926648</v>
+        <v>135200.4301927186</v>
       </c>
       <c r="FH3" t="n">
-        <v>7.396426169465359e-06</v>
+        <v>7.396426169462411e-06</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.003395618168117573</v>
+        <v>0.003395618168118736</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.832924912158186e-05</v>
+        <v>1.832924912157704e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.0260672834039975</v>
+        <v>0.02606728340399008</v>
       </c>
       <c r="FL3" t="n">
-        <v>135263.2420398995</v>
+        <v>135263.2420399536</v>
       </c>
       <c r="FM3" t="n">
-        <v>1.594896326076765</v>
+        <v>1.594896326077943</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.594896326076765</v>
+        <v>1.594896326077943</v>
       </c>
       <c r="FO3" t="n">
-        <v>336974.3780285084</v>
+        <v>336974.3780284366</v>
       </c>
       <c r="FP3" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FQ3" t="n">
-        <v>3788.664462895394</v>
+        <v>3788.664462894938</v>
       </c>
       <c r="FR3" t="n">
-        <v>717.8561079924883</v>
+        <v>717.8561079924843</v>
       </c>
       <c r="FS3" t="n">
-        <v>1006.776649474757</v>
+        <v>1006.776649474755</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.802713589367</v>
+        <v>344.8027135893091</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.9995303778013892</v>
+        <v>0.9995303778013878</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.832924912158186e-05</v>
+        <v>1.832924912157704e-05</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.0260672834039975</v>
+        <v>0.02606728340399008</v>
       </c>
       <c r="FX3" t="n">
-        <v>295.5936546697175</v>
+        <v>295.5936546696179</v>
       </c>
       <c r="FY3" t="n">
-        <v>135263.2420398995</v>
+        <v>135263.2420399536</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.594896326076765</v>
+        <v>1.594896326077943</v>
       </c>
       <c r="GA3" t="n">
-        <v>336974.3780285084</v>
+        <v>336974.3780284366</v>
       </c>
       <c r="GB3" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GC3" t="n">
-        <v>3788.664462895394</v>
+        <v>3788.664462894938</v>
       </c>
       <c r="GD3" t="n">
-        <v>-698120.7438159419</v>
+        <v>-698120.7438155303</v>
       </c>
       <c r="GE3" t="n">
-        <v>717.8561079924883</v>
+        <v>717.8561079924843</v>
       </c>
       <c r="GF3" t="n">
-        <v>1006.776649474757</v>
+        <v>1006.776649474755</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.402476956405993</v>
+        <v>1.402476956405998</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.9995303778013892</v>
+        <v>0.9995303778013878</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.802713589367</v>
+        <v>344.8027135893091</v>
       </c>
       <c r="GJ3" t="n">
-        <v>189615.4878413893</v>
+        <v>189615.4878414656</v>
       </c>
       <c r="GK3" t="n">
-        <v>5.273830800343093e-06</v>
+        <v>5.27383080034097e-06</v>
       </c>
       <c r="GL3" t="n">
-        <v>135200.4301926648</v>
+        <v>135200.4301927186</v>
       </c>
       <c r="GM3" t="n">
-        <v>7.396426169465359e-06</v>
+        <v>7.396426169462411e-06</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.003395618168117573</v>
+        <v>0.003395618168118736</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.832924912158186e-05</v>
+        <v>1.832924912157704e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.0260672834039975</v>
+        <v>0.02606728340399008</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135263.2420398995</v>
+        <v>135263.2420399536</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594896326076765</v>
+        <v>1.594896326077943</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594896326076765</v>
+        <v>1.594896326077943</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3780285084</v>
+        <v>336974.3780284366</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.664462895394</v>
+        <v>3788.664462894938</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561079924883</v>
+        <v>717.8561079924843</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776649474757</v>
+        <v>1006.776649474755</v>
       </c>
       <c r="GY3" t="n">
-        <v>344.802713589367</v>
+        <v>344.8027135893091</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303778013892</v>
+        <v>0.9995303778013878</v>
       </c>
       <c r="HA3" t="n">
-        <v>1.832924912158186e-05</v>
+        <v>1.832924912157704e-05</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.0260672834039975</v>
+        <v>0.02606728340399008</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.8370241731655438</v>
+        <v>0.8370241731923411</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.8370241731655438</v>
+        <v>0.8370241731923411</v>
       </c>
       <c r="HE3" t="n">
-        <v>492103.1126160797</v>
+        <v>492103.1126124375</v>
       </c>
       <c r="HF3" t="n">
-        <v>2.743090699438473</v>
+        <v>2.74309069939732</v>
       </c>
       <c r="HG3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.01594768449518459</v>
+        <v>0.01594768449523169</v>
       </c>
       <c r="HI3" t="n">
-        <v>-1.794076015929559e-07</v>
+        <v>-1.794076015845035e-07</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.01379111872476901</v>
+        <v>0.01379111872477065</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.02518545009328482</v>
+        <v>0.02518545009326134</v>
       </c>
       <c r="HL3" t="n">
         <v>0</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.05492407390563683</v>
+        <v>0.05492407390566209</v>
       </c>
       <c r="HN3" t="n">
-        <v>2.569423840359519e-12</v>
+        <v>-3.203243226224117e-12</v>
       </c>
       <c r="HO3" t="n">
         <v>0</v>
@@ -5082,664 +5082,664 @@
         <v>165.3032</v>
       </c>
       <c r="HQ3" t="n">
-        <v>270.221987986998</v>
+        <v>270.2219879946697</v>
       </c>
       <c r="HR3" t="n">
-        <v>111.184721803384</v>
+        <v>111.1847218063461</v>
       </c>
       <c r="HS3" t="n">
-        <v>246.2882060293375</v>
+        <v>246.2882060364175</v>
       </c>
       <c r="HT3" t="n">
-        <v>65.70360738392313</v>
+        <v>65.70360738396836</v>
       </c>
       <c r="HU3" t="n">
-        <v>137.5522212254957</v>
+        <v>137.5522212320585</v>
       </c>
       <c r="HV3" t="n">
-        <v>111.184721803384</v>
+        <v>111.1847218063461</v>
       </c>
       <c r="HW3" t="n">
-        <v>80.98500602933751</v>
+        <v>80.98500603641747</v>
       </c>
       <c r="HX3" t="n">
-        <v>36.06893978910347</v>
+        <v>36.0689397907608</v>
       </c>
       <c r="HY3" t="n">
-        <v>259.1674391473538</v>
+        <v>259.1674391451784</v>
       </c>
       <c r="HZ3" t="n">
-        <v>85435.22013521545</v>
+        <v>85435.22013094024</v>
       </c>
       <c r="IA3" t="n">
-        <v>1.149197335242673</v>
+        <v>1.149197335194808</v>
       </c>
       <c r="IB3" t="n">
-        <v>310931.0845185761</v>
+        <v>310931.0845170261</v>
       </c>
       <c r="IC3" t="n">
-        <v>385274.4696928675</v>
+        <v>385274.4696906939</v>
       </c>
       <c r="ID3" t="n">
-        <v>3788.664462883494</v>
+        <v>3788.664462889461</v>
       </c>
       <c r="IE3" t="n">
-        <v>-596623.9969412322</v>
+        <v>-596623.9969367103</v>
       </c>
       <c r="IF3" t="n">
-        <v>716.5264444959721</v>
+        <v>716.5264444959079</v>
       </c>
       <c r="IG3" t="n">
-        <v>1005.190725460525</v>
+        <v>1005.190725460413</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.40286619312091</v>
+        <v>1.402866193120878</v>
       </c>
       <c r="II3" t="n">
-        <v>0.9993224981992455</v>
+        <v>0.99932249819925</v>
       </c>
       <c r="IJ3" t="n">
-        <v>322.8365400310978</v>
+        <v>322.8365400297406</v>
       </c>
       <c r="IK3" t="n">
-        <v>119773.2898407218</v>
+        <v>119773.2898347262</v>
       </c>
       <c r="IL3" t="n">
-        <v>8.349106894615907e-06</v>
+        <v>8.349106895033851e-06</v>
       </c>
       <c r="IM3" t="n">
-        <v>85377.55805082605</v>
+        <v>85377.55804655411</v>
       </c>
       <c r="IN3" t="n">
-        <v>1.171267980520936e-05</v>
+        <v>1.171267980579541e-05</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.003871967879569736</v>
+        <v>0.003871967879601894</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.650809359945064e-05</v>
+        <v>1.650809359933866e-05</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.02327571726312887</v>
+        <v>0.02327571726295799</v>
       </c>
       <c r="IR3" t="n">
-        <v>85435.22013521545</v>
+        <v>85435.22013094024</v>
       </c>
       <c r="IS3" t="n">
-        <v>1.149197335242673</v>
+        <v>1.149197335194808</v>
       </c>
       <c r="IT3" t="n">
-        <v>1.149197335242673</v>
+        <v>1.149197335194808</v>
       </c>
       <c r="IU3" t="n">
-        <v>310931.0845185761</v>
+        <v>310931.0845170261</v>
       </c>
       <c r="IV3" t="n">
-        <v>385274.4696928675</v>
+        <v>385274.4696906939</v>
       </c>
       <c r="IW3" t="n">
-        <v>3788.664462883494</v>
+        <v>3788.664462889461</v>
       </c>
       <c r="IX3" t="n">
-        <v>716.5264444959721</v>
+        <v>716.5264444959079</v>
       </c>
       <c r="IY3" t="n">
-        <v>1005.190725460525</v>
+        <v>1005.190725460413</v>
       </c>
       <c r="IZ3" t="n">
-        <v>322.8365400310978</v>
+        <v>322.8365400297406</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.9993224981992455</v>
+        <v>0.99932249819925</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.650809359945064e-05</v>
+        <v>1.650809359933866e-05</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.02327571726312887</v>
+        <v>0.02327571726295799</v>
       </c>
       <c r="JD3" t="n">
-        <v>295.5936546696247</v>
+        <v>295.593654669618</v>
       </c>
       <c r="JE3" t="n">
-        <v>135263.2420428965</v>
+        <v>135263.242040084</v>
       </c>
       <c r="JF3" t="n">
-        <v>1.594896326112622</v>
+        <v>1.59489632607948</v>
       </c>
       <c r="JG3" t="n">
-        <v>336974.3780284355</v>
+        <v>336974.3780284365</v>
       </c>
       <c r="JH3" t="n">
-        <v>421784.4310884893</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="JI3" t="n">
-        <v>3788.664462888696</v>
+        <v>3788.664462894661</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-698120.7438137109</v>
+        <v>-698120.7438154492</v>
       </c>
       <c r="JK3" t="n">
-        <v>717.856107992492</v>
+        <v>717.8561079924847</v>
       </c>
       <c r="JL3" t="n">
-        <v>1006.776649474803</v>
+        <v>1006.776649474757</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.40247695640605</v>
+        <v>1.402476956406</v>
       </c>
       <c r="JN3" t="n">
-        <v>0.9995303778013777</v>
+        <v>0.9995303778013873</v>
       </c>
       <c r="JO3" t="n">
-        <v>344.8027135893161</v>
+        <v>344.8027135893093</v>
       </c>
       <c r="JP3" t="n">
-        <v>189615.4878455962</v>
+        <v>189615.4878416485</v>
       </c>
       <c r="JQ3" t="n">
-        <v>5.273830800226085e-06</v>
+        <v>5.273830800335882e-06</v>
       </c>
       <c r="JR3" t="n">
-        <v>135200.4301956588</v>
+        <v>135200.4301928488</v>
       </c>
       <c r="JS3" t="n">
-        <v>7.396426169301564e-06</v>
+        <v>7.396426169455287e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.00339561816811893</v>
+        <v>0.003395618168118747</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.832924912157779e-05</v>
+        <v>1.832924912157707e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.02606728340399154</v>
+        <v>0.02606728340399014</v>
       </c>
       <c r="JW3" t="n">
-        <v>135263.2420428965</v>
+        <v>135263.242040084</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.594896326112622</v>
+        <v>1.59489632607948</v>
       </c>
       <c r="JY3" t="n">
-        <v>1.594896326112622</v>
+        <v>1.59489632607948</v>
       </c>
       <c r="JZ3" t="n">
-        <v>336974.3780284355</v>
+        <v>336974.3780284365</v>
       </c>
       <c r="KA3" t="n">
-        <v>421784.4310884893</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KB3" t="n">
-        <v>3788.664462888696</v>
+        <v>3788.664462894661</v>
       </c>
       <c r="KC3" t="n">
-        <v>717.856107992492</v>
+        <v>717.8561079924847</v>
       </c>
       <c r="KD3" t="n">
-        <v>1006.776649474803</v>
+        <v>1006.776649474757</v>
       </c>
       <c r="KE3" t="n">
-        <v>344.8027135893161</v>
+        <v>344.8027135893093</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.9995303778013777</v>
+        <v>0.9995303778013873</v>
       </c>
       <c r="KG3" t="n">
-        <v>1.832924912157779e-05</v>
+        <v>1.832924912157707e-05</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.02606728340399154</v>
+        <v>0.02606728340399014</v>
       </c>
       <c r="KI3" t="n">
-        <v>268.6104916499303</v>
+        <v>268.6104916486564</v>
       </c>
       <c r="KJ3" t="n">
-        <v>96809.35917077083</v>
+        <v>96809.35916716122</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.256357389646639</v>
+        <v>1.256357389605745</v>
       </c>
       <c r="KL3" t="n">
-        <v>317679.187063357</v>
+        <v>317679.1870624512</v>
       </c>
       <c r="KM3" t="n">
-        <v>394734.7764749012</v>
+        <v>394734.7764736305</v>
       </c>
       <c r="KN3" t="n">
-        <v>3788.664462890125</v>
+        <v>3788.664462896091</v>
       </c>
       <c r="KO3" t="n">
-        <v>-622940.2475986343</v>
+        <v>-622940.2475966812</v>
       </c>
       <c r="KP3" t="n">
-        <v>716.8004703943573</v>
+        <v>716.8004703943107</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1005.530448649463</v>
+        <v>1005.530448649373</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402803834791371</v>
+        <v>1.402803834791336</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9993668628759622</v>
+        <v>0.9993668628759689</v>
       </c>
       <c r="KT3" t="n">
-        <v>328.6727551341858</v>
+        <v>328.6727551334045</v>
       </c>
       <c r="KU3" t="n">
-        <v>135718.986934506</v>
+        <v>135718.9869294432</v>
       </c>
       <c r="KV3" t="n">
-        <v>7.36816581516756e-06</v>
+        <v>7.368165815442422e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>96748.3717740838</v>
+        <v>96748.37177047713</v>
       </c>
       <c r="KX3" t="n">
-        <v>1.033609126089574e-05</v>
+        <v>1.033609126128106e-05</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003736106263414771</v>
+        <v>0.003736106263432183</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.698955247429745e-05</v>
+        <v>1.698955247423265e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02401054253457648</v>
+        <v>0.02401054253447718</v>
       </c>
       <c r="LB3" t="n">
-        <v>96809.35917077083</v>
+        <v>96809.35916716122</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.256357389646639</v>
+        <v>1.256357389605745</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.256357389646639</v>
+        <v>1.256357389605745</v>
       </c>
       <c r="LE3" t="n">
-        <v>317679.187063357</v>
+        <v>317679.1870624512</v>
       </c>
       <c r="LF3" t="n">
-        <v>394734.7764749012</v>
+        <v>394734.7764736305</v>
       </c>
       <c r="LG3" t="n">
-        <v>3788.664462890125</v>
+        <v>3788.664462896091</v>
       </c>
       <c r="LH3" t="n">
-        <v>716.8004703943573</v>
+        <v>716.8004703943107</v>
       </c>
       <c r="LI3" t="n">
-        <v>1005.530448649463</v>
+        <v>1005.530448649373</v>
       </c>
       <c r="LJ3" t="n">
-        <v>328.6727551341858</v>
+        <v>328.6727551334045</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9993668628759622</v>
+        <v>0.9993668628759689</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.698955247429745e-05</v>
+        <v>1.698955247423265e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02401054253457648</v>
+        <v>0.02401054253447718</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.8370241731650586</v>
+        <v>0.8370241731923409</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.4260738924170287</v>
+        <v>0.4260738924391483</v>
       </c>
       <c r="LP3" t="n">
-        <v>249539.7334806569</v>
+        <v>249539.7334838619</v>
       </c>
       <c r="LQ3" t="n">
-        <v>2.743090699441119</v>
+        <v>2.743090699399947</v>
       </c>
       <c r="LR3" t="n">
-        <v>381072.2025096812</v>
+        <v>381072.2025084102</v>
       </c>
       <c r="LS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT3" t="n">
-        <v>142.5987926271967</v>
+        <v>142.598792632842</v>
       </c>
       <c r="LU3" t="n">
-        <v>127.2474652131897</v>
+        <v>127.2474652169072</v>
       </c>
       <c r="LV3" t="n">
-        <v>-64.36224246833191</v>
+        <v>-64.36224247348963</v>
       </c>
       <c r="LW3" t="n">
-        <v>-26.83045650058402</v>
+        <v>-26.83045650175908</v>
       </c>
       <c r="LX3" t="n">
-        <v>262.5607222479337</v>
+        <v>262.5607222542469</v>
       </c>
       <c r="LY3" t="n">
-        <v>127.2474652131897</v>
+        <v>127.2474652169072</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-229.6654424683319</v>
+        <v>-229.6654424734896</v>
       </c>
       <c r="MA3" t="n">
-        <v>-61.01110194066921</v>
+        <v>-61.01110194050507</v>
       </c>
       <c r="MB3" t="n">
-        <v>234.1852745820964</v>
+        <v>234.1852745791744</v>
       </c>
       <c r="MC3" t="n">
-        <v>57500.00000458206</v>
+        <v>57500.00000091056</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.8559934548195431</v>
+        <v>0.85599345477556</v>
       </c>
       <c r="ME3" t="n">
-        <v>293092.2992156506</v>
+        <v>293092.2992135667</v>
       </c>
       <c r="MF3" t="n">
-        <v>360265.7100412088</v>
+        <v>360265.7100382873</v>
       </c>
       <c r="MG3" t="n">
-        <v>3800.778264892163</v>
+        <v>3800.778264898003</v>
       </c>
       <c r="MH3" t="n">
-        <v>-529820.5915482262</v>
+        <v>-529820.5915414097</v>
       </c>
       <c r="MI3" t="n">
-        <v>715.9876103782698</v>
+        <v>715.9876103782174</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1004.421565091908</v>
+        <v>1004.421565091809</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.402847689726437</v>
+        <v>1.402847689726401</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.9992670963016987</v>
+        <v>0.9992670963017062</v>
       </c>
       <c r="MM3" t="n">
-        <v>306.8633530243329</v>
+        <v>306.8633530224169</v>
       </c>
       <c r="MN3" t="n">
-        <v>80604.72419182562</v>
+        <v>80604.72418667737</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.240622072746219e-05</v>
+        <v>1.240622072825458e-05</v>
       </c>
       <c r="MP3" t="n">
-        <v>57457.92988228394</v>
+        <v>57457.92987861555</v>
       </c>
       <c r="MQ3" t="n">
-        <v>1.740403808575657e-05</v>
+        <v>1.740403808686772e-05</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.004283547972723472</v>
+        <v>0.004283547972776538</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.519975231602346e-05</v>
+        <v>1.519975231586727e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.02128990263517619</v>
+        <v>0.02128990263493998</v>
       </c>
       <c r="MU3" t="n">
-        <v>57500.00000458206</v>
+        <v>57500.00000091056</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.8559934548195431</v>
+        <v>0.85599345477556</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8559934548195431</v>
+        <v>0.85599345477556</v>
       </c>
       <c r="MX3" t="n">
-        <v>293092.2992156506</v>
+        <v>293092.2992135667</v>
       </c>
       <c r="MY3" t="n">
-        <v>360265.7100412088</v>
+        <v>360265.7100382873</v>
       </c>
       <c r="MZ3" t="n">
-        <v>3800.778264892163</v>
+        <v>3800.778264898003</v>
       </c>
       <c r="NA3" t="n">
-        <v>715.9876103782698</v>
+        <v>715.9876103782174</v>
       </c>
       <c r="NB3" t="n">
-        <v>1004.421565091908</v>
+        <v>1004.421565091809</v>
       </c>
       <c r="NC3" t="n">
-        <v>306.8633530243329</v>
+        <v>306.8633530224169</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.9992670963016987</v>
+        <v>0.9992670963017062</v>
       </c>
       <c r="NE3" t="n">
-        <v>1.519975231602346e-05</v>
+        <v>1.519975231586727e-05</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.02128990263517619</v>
+        <v>0.02128990263493998</v>
       </c>
       <c r="NG3" t="n">
-        <v>244.3387661685005</v>
+        <v>244.3387661661828</v>
       </c>
       <c r="NH3" t="n">
-        <v>66683.07200204702</v>
+        <v>66683.07200073992</v>
       </c>
       <c r="NI3" t="n">
-        <v>0.9514213232643094</v>
+        <v>0.9514213232547009</v>
       </c>
       <c r="NJ3" t="n">
-        <v>300345.0710129451</v>
+        <v>300345.0710112869</v>
       </c>
       <c r="NK3" t="n">
-        <v>370432.9178705902</v>
+        <v>370432.917868266</v>
       </c>
       <c r="NL3" t="n">
-        <v>3800.778264910568</v>
+        <v>3800.778264906678</v>
       </c>
       <c r="NM3" t="n">
-        <v>-558244.5538577118</v>
+        <v>-558244.5538502767</v>
       </c>
       <c r="NN3" t="n">
-        <v>716.1698564743095</v>
+        <v>716.1698564742672</v>
       </c>
       <c r="NO3" t="n">
-        <v>1004.669742712029</v>
+        <v>1004.669742711991</v>
       </c>
       <c r="NP3" t="n">
-        <v>1.402837237045969</v>
+        <v>1.402837237045999</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.9992959144273791</v>
+        <v>0.9992959144273622</v>
       </c>
       <c r="NR3" t="n">
-        <v>313.4529907324631</v>
+        <v>313.4529907309746</v>
       </c>
       <c r="NS3" t="n">
-        <v>93479.78748746973</v>
+        <v>93479.78748563782</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.069749971494151e-05</v>
+        <v>1.069749971515114e-05</v>
       </c>
       <c r="NU3" t="n">
-        <v>66636.2319297392</v>
+        <v>66636.23192843189</v>
       </c>
       <c r="NV3" t="n">
-        <v>1.500685094340859e-05</v>
+        <v>1.5006850943703e-05</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.004105895195254518</v>
+        <v>0.004105895195293567</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.573746868417166e-05</v>
+        <v>1.573746868405004e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.02210384051880095</v>
+        <v>0.02210384051861667</v>
       </c>
       <c r="NZ3" t="n">
-        <v>66683.07200204702</v>
+        <v>66683.07200073992</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.9514213232643094</v>
+        <v>0.9514213232547009</v>
       </c>
       <c r="OB3" t="n">
-        <v>0.9514213232643094</v>
+        <v>0.9514213232547009</v>
       </c>
       <c r="OC3" t="n">
-        <v>300345.0710129451</v>
+        <v>300345.0710112869</v>
       </c>
       <c r="OD3" t="n">
-        <v>370432.9178705902</v>
+        <v>370432.917868266</v>
       </c>
       <c r="OE3" t="n">
-        <v>3800.778264910568</v>
+        <v>3800.778264906678</v>
       </c>
       <c r="OF3" t="n">
-        <v>716.1698564743095</v>
+        <v>716.1698564742672</v>
       </c>
       <c r="OG3" t="n">
-        <v>1004.669742712029</v>
+        <v>1004.669742711991</v>
       </c>
       <c r="OH3" t="n">
-        <v>313.4529907324631</v>
+        <v>313.4529907309746</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.9992959144273791</v>
+        <v>0.9992959144273622</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1.573746868417166e-05</v>
+        <v>1.573746868405004e-05</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.02210384051880095</v>
+        <v>0.02210384051861667</v>
       </c>
       <c r="OL3" t="n">
-        <v>268.5992187011547</v>
+        <v>268.5992186998837</v>
       </c>
       <c r="OM3" t="n">
-        <v>92806.46884461409</v>
+        <v>92806.46884433391</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.204428625578785</v>
+        <v>1.204428625580866</v>
       </c>
       <c r="OO3" t="n">
-        <v>317680.4231710547</v>
+        <v>317680.4231701433</v>
       </c>
       <c r="OP3" t="n">
-        <v>394734.7764749013</v>
+        <v>394734.7764736242</v>
       </c>
       <c r="OQ3" t="n">
-        <v>3800.778264901892</v>
+        <v>3800.778264898004</v>
       </c>
       <c r="OR3" t="n">
-        <v>-626151.2959340774</v>
+        <v>-626151.2959294792</v>
       </c>
       <c r="OS3" t="n">
-        <v>716.7872747139658</v>
+        <v>716.7872747139298</v>
       </c>
       <c r="OT3" t="n">
-        <v>1005.447809412209</v>
+        <v>1005.447809412186</v>
       </c>
       <c r="OU3" t="n">
-        <v>1.402714368518098</v>
+        <v>1.402714368518136</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.9993927734245562</v>
+        <v>0.9993927734245419</v>
       </c>
       <c r="OW3" t="n">
-        <v>328.6638565121825</v>
+        <v>328.6638565114047</v>
       </c>
       <c r="OX3" t="n">
-        <v>130102.2965205265</v>
+        <v>130102.2965201355</v>
       </c>
       <c r="OY3" t="n">
-        <v>7.686259403132272e-06</v>
+        <v>7.686259403155371e-06</v>
       </c>
       <c r="OZ3" t="n">
-        <v>92750.38414126576</v>
+        <v>92750.38414098443</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.078162650493097e-05</v>
+        <v>1.078162650496367e-05</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.003735717348501723</v>
+        <v>0.003735717348519539</v>
       </c>
       <c r="PC3" t="n">
-        <v>1.698837517595191e-05</v>
+        <v>1.698837517588776e-05</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.02400825517032662</v>
+        <v>0.02400825517022871</v>
       </c>
       <c r="PE3" t="n">
-        <v>92806.46884461409</v>
+        <v>92806.46884433391</v>
       </c>
       <c r="PF3" t="n">
-        <v>1.204428625578785</v>
+        <v>1.204428625580866</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.204428625578785</v>
+        <v>1.204428625580866</v>
       </c>
       <c r="PH3" t="n">
-        <v>317680.4231710547</v>
+        <v>317680.4231701433</v>
       </c>
       <c r="PI3" t="n">
-        <v>394734.7764749013</v>
+        <v>394734.7764736242</v>
       </c>
       <c r="PJ3" t="n">
-        <v>3800.778264901892</v>
+        <v>3800.778264898004</v>
       </c>
       <c r="PK3" t="n">
-        <v>716.7872747139658</v>
+        <v>716.7872747139298</v>
       </c>
       <c r="PL3" t="n">
-        <v>1005.447809412209</v>
+        <v>1005.447809412186</v>
       </c>
       <c r="PM3" t="n">
-        <v>328.6638565121825</v>
+        <v>328.6638565114047</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.9993927734245562</v>
+        <v>0.9993927734245419</v>
       </c>
       <c r="PO3" t="n">
-        <v>1.698837517595191e-05</v>
+        <v>1.698837517588776e-05</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.02400825517032662</v>
+        <v>0.02400825517022871</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.4646980202158231</v>
+        <v>0.4646980202371215</v>
       </c>
       <c r="PR3" t="n">
-        <v>0.8556274956270643</v>
+        <v>0.8556274956529801</v>
       </c>
       <c r="PS3" t="n">
-        <v>385334.6848665306</v>
+        <v>385334.6848599561</v>
       </c>
       <c r="PT3" t="n">
-        <v>2.743090699646048</v>
+        <v>2.743090699585241</v>
       </c>
       <c r="PU3" t="n">
-        <v>381072.2025096811</v>
+        <v>381072.2025084102</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02460453034352661</v>
+        <v>0.02460453034449839</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.002167610487853198</v>
+        <v>0.002167610488926437</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.01188621339030608</v>
+        <v>0.01188621339021743</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.03204893958844315</v>
+        <v>0.03204893958918546</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.04266825628273233</v>
+        <v>0.04266825628375128</v>
       </c>
       <c r="QA3" t="n">
-        <v>0.1133755500928613</v>
+        <v>0.113375550096579</v>
       </c>
       <c r="QB3" t="n">
-        <v>-1.184960463085361e-11</v>
+        <v>-1.207579453099683e-10</v>
       </c>
       <c r="QC3" t="n">
         <v>0</v>
@@ -7086,160 +7086,160 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593129418765305</v>
+        <v>0.01593129418743291</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788191703853556e-07</v>
+        <v>-1.788191704073032e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379057938680481</v>
+        <v>0.01379057938679744</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519285335547064</v>
+        <v>0.02519285335557222</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491454811075811</v>
+        <v>0.05491454811063216</v>
       </c>
       <c r="H2" t="n">
-        <v>1.076222444496011e-14</v>
+        <v>2.661759701538813e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9817983309472033</v>
+        <v>0.9817983309472313</v>
       </c>
       <c r="J2" t="n">
-        <v>2.783722642467155</v>
+        <v>2.783722642467248</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>277.0514957409154</v>
+        <v>277.0514957238174</v>
       </c>
       <c r="M2" t="n">
-        <v>113.7050375275925</v>
+        <v>113.7050375212232</v>
       </c>
       <c r="N2" t="n">
-        <v>252.6434161681782</v>
+        <v>252.6434161522949</v>
       </c>
       <c r="O2" t="n">
-        <v>65.76933148327527</v>
+        <v>65.76933148312833</v>
       </c>
       <c r="P2" t="n">
-        <v>277.0514957409154</v>
+        <v>277.0514957238174</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.7050375275925</v>
+        <v>113.7050375212232</v>
       </c>
       <c r="R2" t="n">
-        <v>252.6434161681782</v>
+        <v>252.6434161522949</v>
       </c>
       <c r="S2" t="n">
-        <v>65.76933148327527</v>
+        <v>65.76933148312833</v>
       </c>
       <c r="T2" t="n">
-        <v>257.3015351418008</v>
+        <v>257.3015351467308</v>
       </c>
       <c r="U2" t="n">
-        <v>83234.57803468671</v>
+        <v>83234.5780404424</v>
       </c>
       <c r="V2" t="n">
-        <v>1.127723760729407</v>
+        <v>1.12772376078576</v>
       </c>
       <c r="W2" t="n">
-        <v>309598.0709469002</v>
+        <v>309598.0709504223</v>
       </c>
       <c r="X2" t="n">
-        <v>383405.6654422499</v>
+        <v>383405.6654471874</v>
       </c>
       <c r="Y2" t="n">
-        <v>3788.913188280648</v>
+        <v>3788.913188280003</v>
       </c>
       <c r="Z2" t="n">
-        <v>-591487.5144213761</v>
+        <v>-591487.5144349516</v>
       </c>
       <c r="AA2" t="n">
-        <v>716.4772849044618</v>
+        <v>716.4772849045894</v>
       </c>
       <c r="AB2" t="n">
-        <v>1005.127268361543</v>
+        <v>1005.127268361708</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.402873879659102</v>
+        <v>1.402873879659083</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.9993150861891074</v>
+        <v>0.9993150861891266</v>
       </c>
       <c r="AE2" t="n">
-        <v>321.6707699325582</v>
+        <v>321.6707699356439</v>
       </c>
       <c r="AF2" t="n">
-        <v>116687.9279572433</v>
+        <v>116687.9279653129</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.569866802043307e-06</v>
+        <v>8.56986680145065e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>83177.77502964011</v>
+        <v>83177.77503539351</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.202244228874424e-05</v>
+        <v>1.202244228791265e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.003899979244852637</v>
+        <v>0.003899979244778091</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.641213474416872e-05</v>
+        <v>1.64121347444226e-05</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.02312952199142986</v>
+        <v>0.02312952199181655</v>
       </c>
       <c r="AM2" t="n">
-        <v>83234.57803468671</v>
+        <v>83234.5780404424</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.127723760729407</v>
+        <v>1.12772376078576</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.127723760729407</v>
+        <v>1.12772376078576</v>
       </c>
       <c r="AP2" t="n">
-        <v>309598.0709469002</v>
+        <v>309598.0709504223</v>
       </c>
       <c r="AQ2" t="n">
-        <v>383405.6654422499</v>
+        <v>383405.6654471874</v>
       </c>
       <c r="AR2" t="n">
-        <v>3788.913188280648</v>
+        <v>3788.913188280003</v>
       </c>
       <c r="AS2" t="n">
-        <v>716.4772849044618</v>
+        <v>716.4772849045894</v>
       </c>
       <c r="AT2" t="n">
-        <v>1005.127268361543</v>
+        <v>1005.127268361708</v>
       </c>
       <c r="AU2" t="n">
-        <v>321.6707699325582</v>
+        <v>321.6707699356439</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.9993150861891074</v>
+        <v>0.9993150861891266</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.641213474416872e-05</v>
+        <v>1.64121347444226e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02312952199142986</v>
+        <v>0.02312952199181655</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.5933828946452</v>
+        <v>295.5933828946459</v>
       </c>
       <c r="AZ2" t="n">
-        <v>135146.0334718287</v>
+        <v>135146.0334721331</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.593515142456689</v>
+        <v>1.593515142460276</v>
       </c>
       <c r="BB2" t="n">
         <v>336974.4221523225</v>
@@ -7248,55 +7248,55 @@
         <v>421784.4310885897</v>
       </c>
       <c r="BD2" t="n">
-        <v>3788.913188281106</v>
+        <v>3788.91318828046</v>
       </c>
       <c r="BE2" t="n">
-        <v>-698193.2357295582</v>
+        <v>-698193.23572937</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8558026979803</v>
+        <v>717.8558026979811</v>
       </c>
       <c r="BG2" t="n">
-        <v>1006.77472503198</v>
+        <v>1006.774725031985</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.402474872039942</v>
+        <v>1.402474872039947</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.9995307767691801</v>
+        <v>0.9995307767691791</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8024349236298</v>
+        <v>344.8024349236306</v>
       </c>
       <c r="BK2" t="n">
-        <v>189450.9741997624</v>
+        <v>189450.9742001897</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.278410439555576e-06</v>
+        <v>5.278410439543671e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>135083.3287474166</v>
+        <v>135083.3287477207</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.402838005789999e-06</v>
+        <v>7.402838005773333e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395610435369895</v>
+        <v>0.003395610435369915</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.832921903181461e-05</v>
+        <v>1.832921903181469e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606722555811931</v>
+        <v>0.02606722555811946</v>
       </c>
       <c r="BR2" t="n">
-        <v>135146.0334718287</v>
+        <v>135146.0334721331</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.593515142456689</v>
+        <v>1.593515142460276</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.593515142456689</v>
+        <v>1.593515142460276</v>
       </c>
       <c r="BU2" t="n">
         <v>336974.4221523225</v>
@@ -7305,34 +7305,34 @@
         <v>421784.4310885897</v>
       </c>
       <c r="BW2" t="n">
-        <v>3788.913188281106</v>
+        <v>3788.91318828046</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8558026979803</v>
+        <v>717.8558026979811</v>
       </c>
       <c r="BY2" t="n">
-        <v>1006.77472503198</v>
+        <v>1006.774725031985</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8024349236298</v>
+        <v>344.8024349236306</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.9995307767691801</v>
+        <v>0.9995307767691791</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.832921903181461e-05</v>
+        <v>1.832921903181469e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606722555811931</v>
+        <v>0.02606722555811946</v>
       </c>
       <c r="CD2" t="n">
-        <v>295.5933828946452</v>
+        <v>295.5933828946459</v>
       </c>
       <c r="CE2" t="n">
-        <v>135146.0334718287</v>
+        <v>135146.0334721331</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.593515142456689</v>
+        <v>1.593515142460276</v>
       </c>
       <c r="CG2" t="n">
         <v>336974.4221523225</v>
@@ -7341,55 +7341,55 @@
         <v>421784.4310885897</v>
       </c>
       <c r="CI2" t="n">
-        <v>3788.913188281106</v>
+        <v>3788.91318828046</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-698193.2357295582</v>
+        <v>-698193.23572937</v>
       </c>
       <c r="CK2" t="n">
-        <v>717.8558026979803</v>
+        <v>717.8558026979811</v>
       </c>
       <c r="CL2" t="n">
-        <v>1006.77472503198</v>
+        <v>1006.774725031985</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.402474872039942</v>
+        <v>1.402474872039947</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.9995307767691801</v>
+        <v>0.9995307767691791</v>
       </c>
       <c r="CO2" t="n">
-        <v>344.8024349236298</v>
+        <v>344.8024349236306</v>
       </c>
       <c r="CP2" t="n">
-        <v>189450.9741997624</v>
+        <v>189450.9742001897</v>
       </c>
       <c r="CQ2" t="n">
-        <v>5.278410439555576e-06</v>
+        <v>5.278410439543671e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>135083.3287474166</v>
+        <v>135083.3287477207</v>
       </c>
       <c r="CS2" t="n">
-        <v>7.402838005789999e-06</v>
+        <v>7.402838005773333e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.003395610435369895</v>
+        <v>0.003395610435369915</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.832921903181461e-05</v>
+        <v>1.832921903181469e-05</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.02606722555811931</v>
+        <v>0.02606722555811946</v>
       </c>
       <c r="CW2" t="n">
-        <v>135146.0334718287</v>
+        <v>135146.0334721331</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.593515142456689</v>
+        <v>1.593515142460276</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.593515142456689</v>
+        <v>1.593515142460276</v>
       </c>
       <c r="CZ2" t="n">
         <v>336974.4221523225</v>
@@ -7398,58 +7398,58 @@
         <v>421784.4310885897</v>
       </c>
       <c r="DB2" t="n">
-        <v>3788.913188281106</v>
+        <v>3788.91318828046</v>
       </c>
       <c r="DC2" t="n">
-        <v>717.8558026979803</v>
+        <v>717.8558026979811</v>
       </c>
       <c r="DD2" t="n">
-        <v>1006.77472503198</v>
+        <v>1006.774725031985</v>
       </c>
       <c r="DE2" t="n">
-        <v>344.8024349236298</v>
+        <v>344.8024349236306</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.9995307767691801</v>
+        <v>0.9995307767691791</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.832921903181461e-05</v>
+        <v>1.832921903181469e-05</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.02606722555811931</v>
+        <v>0.02606722555811946</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01602746807125985</v>
+        <v>0.01602746807110745</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-1.822088378799855e-07</v>
+        <v>-1.822088378987683e-07</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.01379326062350864</v>
+        <v>0.01379326062350352</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0251570399030485</v>
+        <v>0.02515703990311966</v>
       </c>
       <c r="DM2" t="n">
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.05497758638897911</v>
+        <v>0.05497758638889273</v>
       </c>
       <c r="DO2" t="n">
-        <v>4.975186929101483e-15</v>
+        <v>8.465450562766819e-16</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.8612889999268577</v>
+        <v>0.8612889998654421</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.8612889999268577</v>
+        <v>0.8612889998654421</v>
       </c>
       <c r="DR2" t="n">
-        <v>498007.5144498683</v>
+        <v>498007.514436316</v>
       </c>
       <c r="DS2" t="n">
-        <v>2.740741523288058</v>
+        <v>2.740741523255872</v>
       </c>
       <c r="DT2" t="n">
         <v>421784.4310884894</v>
@@ -7458,418 +7458,418 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>1473.775687165617</v>
+        <v>1473.775687012589</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.006567386310387865</v>
+        <v>0.006567386312385991</v>
       </c>
       <c r="DY2" t="n">
-        <v>-7.371495107621916e-08</v>
+        <v>-7.371495110871304e-08</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.01038529565128196</v>
+        <v>0.01038529565462707</v>
       </c>
       <c r="EA2" t="n">
         <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.005684915563696658</v>
+        <v>0.005684915565501812</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.02448664324590142</v>
+        <v>0.02448664324237261</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.001921552659771436</v>
+        <v>0.001921552657218087</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0118891704064125</v>
+        <v>0.01188917040661857</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.03198686093141916</v>
+        <v>0.03198686092964996</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.04237527463798446</v>
+        <v>0.04237527463505394</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.112659501881489</v>
+        <v>0.1126595018709132</v>
       </c>
       <c r="EI2" t="n">
-        <v>8.439110521507587e-12</v>
+        <v>-8.541292673136525e-12</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.9633419868529834</v>
+        <v>0.9633419868558636</v>
       </c>
       <c r="EK2" t="n">
-        <v>2.778686157139802</v>
+        <v>2.77868615725074</v>
       </c>
       <c r="EL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM2" t="n">
-        <v>143.4433306496555</v>
+        <v>143.4433305802157</v>
       </c>
       <c r="EN2" t="n">
-        <v>127.712814706576</v>
+        <v>127.712814668711</v>
       </c>
       <c r="EO2" t="n">
-        <v>-65.31022942533724</v>
+        <v>-65.31022934686823</v>
       </c>
       <c r="EP2" t="n">
-        <v>-27.0844541985372</v>
+        <v>-27.08445417751762</v>
       </c>
       <c r="EQ2" t="n">
-        <v>263.615471608916</v>
+        <v>263.6154715219262</v>
       </c>
       <c r="ER2" t="n">
-        <v>127.712814706576</v>
+        <v>127.712814668711</v>
       </c>
       <c r="ES2" t="n">
-        <v>-230.6134294253372</v>
+        <v>-230.6134293468682</v>
       </c>
       <c r="ET2" t="n">
-        <v>-61.02248761036788</v>
+        <v>-61.02248760930486</v>
       </c>
       <c r="EU2" t="n">
-        <v>234.1346587653531</v>
+        <v>234.1346587912858</v>
       </c>
       <c r="EV2" t="n">
-        <v>57470.58946051797</v>
+        <v>57470.58948467546</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.8557408417732635</v>
+        <v>0.8557408420381536</v>
       </c>
       <c r="EX2" t="n">
-        <v>293056.1067118436</v>
+        <v>293056.1067303614</v>
       </c>
       <c r="EY2" t="n">
-        <v>360214.9784812775</v>
+        <v>360214.9785072365</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3800.708363470887</v>
+        <v>3800.708363461186</v>
       </c>
       <c r="FA2" t="n">
-        <v>-529662.5772666018</v>
+        <v>-529662.5773369347</v>
       </c>
       <c r="FB2" t="n">
-        <v>715.9868666456885</v>
+        <v>715.9868666461127</v>
       </c>
       <c r="FC2" t="n">
-        <v>1004.420831930555</v>
+        <v>1004.420831931194</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.40284812294972</v>
+        <v>1.40284812294978</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9992667915968344</v>
+        <v>0.9992667915968747</v>
       </c>
       <c r="FF2" t="n">
-        <v>306.8301427778488</v>
+        <v>306.8301427948602</v>
       </c>
       <c r="FG2" t="n">
-        <v>80563.49607564394</v>
+        <v>80563.4961095152</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.241256957196923e-05</v>
+        <v>1.241256956675062e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>57428.52327181782</v>
+        <v>57428.52329596</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.741294992501983e-05</v>
+        <v>1.741294991769967e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.004284475388550172</v>
+        <v>0.004284475388077041</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.519705206951054e-05</v>
+        <v>1.519705207089553e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.02128582471110844</v>
+        <v>0.02128582471320155</v>
       </c>
       <c r="FN2" t="n">
-        <v>57470.58946051797</v>
+        <v>57470.58948467546</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.8557408417732635</v>
+        <v>0.8557408420381536</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.8557408417732635</v>
+        <v>0.8557408420381536</v>
       </c>
       <c r="FQ2" t="n">
-        <v>293056.1067118436</v>
+        <v>293056.1067303614</v>
       </c>
       <c r="FR2" t="n">
-        <v>360214.9784812775</v>
+        <v>360214.9785072365</v>
       </c>
       <c r="FS2" t="n">
-        <v>3800.708363470887</v>
+        <v>3800.708363461186</v>
       </c>
       <c r="FT2" t="n">
-        <v>715.9868666456885</v>
+        <v>715.9868666461127</v>
       </c>
       <c r="FU2" t="n">
-        <v>1004.420831930555</v>
+        <v>1004.420831931194</v>
       </c>
       <c r="FV2" t="n">
-        <v>306.8301427778488</v>
+        <v>306.8301427948602</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.9992667915968344</v>
+        <v>0.9992667915968747</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.519705206951054e-05</v>
+        <v>1.519705207089553e-05</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.02128582471110844</v>
+        <v>0.02128582471320155</v>
       </c>
       <c r="FZ2" t="n">
-        <v>244.4087757836365</v>
+        <v>244.4087757998194</v>
       </c>
       <c r="GA2" t="n">
-        <v>66766.01589395502</v>
+        <v>66766.01591163938</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.9523318330619646</v>
+        <v>0.9523318332511267</v>
       </c>
       <c r="GC2" t="n">
-        <v>300395.0405099618</v>
+        <v>300395.0405215163</v>
       </c>
       <c r="GD2" t="n">
-        <v>370502.9730352109</v>
+        <v>370502.9730514095</v>
       </c>
       <c r="GE2" t="n">
-        <v>3800.708363489292</v>
+        <v>3800.708363479591</v>
       </c>
       <c r="GF2" t="n">
-        <v>-558423.5051958353</v>
+        <v>-558423.5052387724</v>
       </c>
       <c r="GG2" t="n">
-        <v>716.1713231710346</v>
+        <v>716.1713231713675</v>
       </c>
       <c r="GH2" t="n">
-        <v>1004.672020145812</v>
+        <v>1004.6720201463</v>
       </c>
       <c r="GI2" t="n">
-        <v>1.402837544091218</v>
+        <v>1.402837544091247</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9992959659994153</v>
+        <v>0.9992959659994429</v>
       </c>
       <c r="GK2" t="n">
-        <v>313.4979449536788</v>
+        <v>313.4979449640696</v>
       </c>
       <c r="GL2" t="n">
-        <v>93596.08821103528</v>
+        <v>93596.08823583076</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.068420720474188e-05</v>
+        <v>1.068420720191142e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>66719.12125909662</v>
+        <v>66719.12127677046</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.49882069956618e-05</v>
+        <v>1.498820699169144e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.004104724630833011</v>
+        <v>0.004104724630562213</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.574114887881449e-05</v>
+        <v>1.574114887966489e-05</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.02210942336626396</v>
+        <v>0.02210942336755381</v>
       </c>
       <c r="GS2" t="n">
-        <v>66766.01589395502</v>
+        <v>66766.01591163938</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.9523318330619646</v>
+        <v>0.9523318332511267</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.9523318330619646</v>
+        <v>0.9523318332511267</v>
       </c>
       <c r="GV2" t="n">
-        <v>300395.0405099618</v>
+        <v>300395.0405215163</v>
       </c>
       <c r="GW2" t="n">
-        <v>370502.9730352109</v>
+        <v>370502.9730514095</v>
       </c>
       <c r="GX2" t="n">
-        <v>3800.708363489292</v>
+        <v>3800.708363479591</v>
       </c>
       <c r="GY2" t="n">
-        <v>716.1713231710346</v>
+        <v>716.1713231713675</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1004.672020145812</v>
+        <v>1004.6720201463</v>
       </c>
       <c r="HA2" t="n">
-        <v>313.4979449536788</v>
+        <v>313.4979449640696</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.9992959659994153</v>
+        <v>0.9992959659994429</v>
       </c>
       <c r="HC2" t="n">
-        <v>1.574114887881449e-05</v>
+        <v>1.574114887966489e-05</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.02210942336626396</v>
+        <v>0.02210942336755381</v>
       </c>
       <c r="HE2" t="n">
-        <v>268.825582706228</v>
+        <v>268.8255827093576</v>
       </c>
       <c r="HF2" t="n">
-        <v>93102.55547126789</v>
+        <v>93102.55547819071</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.207252625367125</v>
+        <v>1.207252625442844</v>
       </c>
       <c r="HH2" t="n">
-        <v>317842.172241469</v>
+        <v>317842.1722436987</v>
       </c>
       <c r="HI2" t="n">
-        <v>394961.5369170732</v>
+        <v>394961.5369202004</v>
       </c>
       <c r="HJ2" t="n">
-        <v>3800.708363480618</v>
+        <v>3800.708363470919</v>
       </c>
       <c r="HK2" t="n">
-        <v>-626766.1035920379</v>
+        <v>-626766.1035981984</v>
       </c>
       <c r="HL2" t="n">
-        <v>716.7944704770304</v>
+        <v>716.7944704771393</v>
       </c>
       <c r="HM2" t="n">
-        <v>1005.45691448003</v>
+        <v>1005.456914480214</v>
       </c>
       <c r="HN2" t="n">
-        <v>1.402712989416468</v>
+        <v>1.402712989416512</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.999393722517984</v>
+        <v>0.9993937225179789</v>
       </c>
       <c r="HP2" t="n">
-        <v>328.8024724103873</v>
+        <v>328.8024724123048</v>
       </c>
       <c r="HQ2" t="n">
-        <v>130517.3680945665</v>
+        <v>130517.3681042748</v>
       </c>
       <c r="HR2" t="n">
-        <v>7.661815546843154e-06</v>
+        <v>7.661815546273243e-06</v>
       </c>
       <c r="HS2" t="n">
-        <v>93046.38160430948</v>
+        <v>93046.3816112277</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.074732819006994e-05</v>
+        <v>1.074732818927085e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.003732580467112886</v>
+        <v>0.003732580467069938</v>
       </c>
       <c r="HV2" t="n">
-        <v>1.699983545363414e-05</v>
+        <v>1.699983545379299e-05</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.02402577638905034</v>
+        <v>0.02402577638929355</v>
       </c>
       <c r="HX2" t="n">
-        <v>93102.55547126789</v>
+        <v>93102.55547819071</v>
       </c>
       <c r="HY2" t="n">
-        <v>1.207252625367125</v>
+        <v>1.207252625442844</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1.207252625367125</v>
+        <v>1.207252625442844</v>
       </c>
       <c r="IA2" t="n">
-        <v>317842.172241469</v>
+        <v>317842.1722436987</v>
       </c>
       <c r="IB2" t="n">
-        <v>394961.5369170732</v>
+        <v>394961.5369202004</v>
       </c>
       <c r="IC2" t="n">
-        <v>3800.708363480618</v>
+        <v>3800.708363470919</v>
       </c>
       <c r="ID2" t="n">
-        <v>716.7944704770304</v>
+        <v>716.7944704771393</v>
       </c>
       <c r="IE2" t="n">
-        <v>1005.45691448003</v>
+        <v>1005.456914480214</v>
       </c>
       <c r="IF2" t="n">
-        <v>328.8024724103873</v>
+        <v>328.8024724123048</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.999393722517984</v>
+        <v>0.9993937225179789</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.699983545363414e-05</v>
+        <v>1.699983545379299e-05</v>
       </c>
       <c r="II2" t="n">
-        <v>0.02402577638905034</v>
+        <v>0.02402577638929355</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.02429895906918511</v>
+        <v>0.02429895906770714</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.001970334091381499</v>
+        <v>0.001970334088321671</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.01190214067850868</v>
+        <v>0.01190214067862508</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.03191283379878251</v>
+        <v>0.03191283379752698</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.04245439804716642</v>
+        <v>0.0424543980437088</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.1125386656850242</v>
+        <v>0.1125386656758897</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.26139515499446e-11</v>
+        <v>-4.385519725147446e-12</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.4675007786099795</v>
+        <v>0.4675007783577466</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.8591576734355559</v>
+        <v>0.8591576731044109</v>
       </c>
       <c r="IS2" t="n">
-        <v>386837.1859029827</v>
+        <v>386837.18585982</v>
       </c>
       <c r="IT2" t="n">
-        <v>2.740741523381037</v>
+        <v>2.740741523325009</v>
       </c>
       <c r="IU2" t="n">
-        <v>381298.9629520535</v>
+        <v>381298.9629550804</v>
       </c>
       <c r="IV2" t="n">
         <v>0</v>
       </c>
       <c r="IW2" t="n">
-        <v>2666.383352364704</v>
+        <v>2666.38335265941</v>
       </c>
       <c r="IX2" t="n">
-        <v>6.135808889388301</v>
+        <v>6.13580888489782</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.008901876170875208</v>
+        <v>0.008901876175147195</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.0006985614018762794</v>
+        <v>0.0006985614013839433</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.01162850588572036</v>
+        <v>0.01162850589233348</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.01540511060442331</v>
+        <v>0.01540511061297088</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.004322189924910715</v>
+        <v>0.004322189927682715</v>
       </c>
     </row>
     <row r="3">
@@ -7877,370 +7877,370 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01594768449518459</v>
+        <v>0.01594768449523169</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.794076015929559e-07</v>
+        <v>-1.794076015845035e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379111872476901</v>
+        <v>0.01379111872477065</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518545009328482</v>
+        <v>0.02518545009326134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492407390563683</v>
+        <v>0.05492407390566209</v>
       </c>
       <c r="H3" t="n">
-        <v>2.569423840359519e-12</v>
+        <v>-3.203243226224117e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.981796643101948</v>
+        <v>0.9817966431019256</v>
       </c>
       <c r="J3" t="n">
-        <v>2.783717087217362</v>
+        <v>2.783717087217288</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>278.1336240468638</v>
+        <v>278.1336240612641</v>
       </c>
       <c r="M3" t="n">
-        <v>114.108976222712</v>
+        <v>114.1089762282006</v>
       </c>
       <c r="N3" t="n">
-        <v>253.6482887205169</v>
+        <v>253.6482887338381</v>
       </c>
       <c r="O3" t="n">
-        <v>65.7784076830099</v>
+        <v>65.77840768310462</v>
       </c>
       <c r="P3" t="n">
-        <v>278.1336240468638</v>
+        <v>278.1336240612641</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.108976222712</v>
+        <v>114.1089762282006</v>
       </c>
       <c r="R3" t="n">
-        <v>253.6482887205169</v>
+        <v>253.6482887338381</v>
       </c>
       <c r="S3" t="n">
-        <v>65.7784076830099</v>
+        <v>65.77840768310463</v>
       </c>
       <c r="T3" t="n">
-        <v>257.0016035760517</v>
+        <v>257.001603572252</v>
       </c>
       <c r="U3" t="n">
-        <v>82884.97726016014</v>
+        <v>82884.97725553345</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12429899784906</v>
+        <v>1.124298997802939</v>
       </c>
       <c r="W3" t="n">
-        <v>309383.8025239268</v>
+        <v>309383.8025212126</v>
       </c>
       <c r="X3" t="n">
-        <v>383105.274675668</v>
+        <v>383105.274671863</v>
       </c>
       <c r="Y3" t="n">
-        <v>3788.952412252409</v>
+        <v>3788.952412253615</v>
       </c>
       <c r="Z3" t="n">
-        <v>-590661.5711465505</v>
+        <v>-590661.5711362689</v>
       </c>
       <c r="AA3" t="n">
-        <v>716.4695394913673</v>
+        <v>716.4695394912686</v>
       </c>
       <c r="AB3" t="n">
-        <v>1005.117233374046</v>
+        <v>1005.117233373915</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.402875039303966</v>
+        <v>1.402875039303976</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.9993139174911925</v>
+        <v>0.9993139174911794</v>
       </c>
       <c r="AE3" t="n">
-        <v>321.4829865515217</v>
+        <v>321.482986549142</v>
       </c>
       <c r="AF3" t="n">
-        <v>116197.7749812841</v>
+        <v>116197.7749747971</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.606016768918936e-06</v>
+        <v>8.606016769399385e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>82828.3145154079</v>
+        <v>82828.31451078325</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.207316611294774e-05</v>
+        <v>1.207316611362183e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.003904519798130406</v>
+        <v>0.003904519798187962</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.639668464720586e-05</v>
+        <v>1.639668464701005e-05</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.02310599192480185</v>
+        <v>0.02310599192450362</v>
       </c>
       <c r="AM3" t="n">
-        <v>82884.97726016014</v>
+        <v>82884.97725553345</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.12429899784906</v>
+        <v>1.124298997802939</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.12429899784906</v>
+        <v>1.124298997802939</v>
       </c>
       <c r="AP3" t="n">
-        <v>309383.8025239268</v>
+        <v>309383.8025212126</v>
       </c>
       <c r="AQ3" t="n">
-        <v>383105.274675668</v>
+        <v>383105.274671863</v>
       </c>
       <c r="AR3" t="n">
-        <v>3788.952412252409</v>
+        <v>3788.952412253615</v>
       </c>
       <c r="AS3" t="n">
-        <v>716.4695394913673</v>
+        <v>716.4695394912686</v>
       </c>
       <c r="AT3" t="n">
-        <v>1005.117233374046</v>
+        <v>1005.117233373915</v>
       </c>
       <c r="AU3" t="n">
-        <v>321.4829865515217</v>
+        <v>321.482986549142</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.9993139174911925</v>
+        <v>0.9993139174911794</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.639668464720586e-05</v>
+        <v>1.639668464701005e-05</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.02310599192480185</v>
+        <v>0.02310599192450362</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.5933400569013</v>
+        <v>295.5933400569</v>
       </c>
       <c r="AZ3" t="n">
-        <v>135127.5589686317</v>
+        <v>135127.5589680638</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.59329743911817</v>
+        <v>1.593297439111477</v>
       </c>
       <c r="BB3" t="n">
-        <v>336974.4291069511</v>
+        <v>336974.4291069512</v>
       </c>
       <c r="BC3" t="n">
         <v>421784.4310883888</v>
       </c>
       <c r="BD3" t="n">
-        <v>3788.952412251993</v>
+        <v>3788.9524122532</v>
       </c>
       <c r="BE3" t="n">
-        <v>-698204.6677658311</v>
+        <v>-698204.6677661828</v>
       </c>
       <c r="BF3" t="n">
-        <v>717.855754577085</v>
+        <v>717.8557545770838</v>
       </c>
       <c r="BG3" t="n">
-        <v>1006.77442169932</v>
+        <v>1006.774421699311</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.402474543499964</v>
+        <v>1.402474543499954</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9995308396560367</v>
+        <v>0.9995308396560386</v>
       </c>
       <c r="BJ3" t="n">
-        <v>344.8023910003649</v>
+        <v>344.8023910003636</v>
       </c>
       <c r="BK3" t="n">
-        <v>189425.0434682015</v>
+        <v>189425.0434674043</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.279133010561344e-06</v>
+        <v>5.27913301058356e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>135064.8711209255</v>
+        <v>135064.871120358</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.403849659062613e-06</v>
+        <v>7.403849659093719e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395609216521706</v>
+        <v>0.003395609216521669</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.832921428904539e-05</v>
+        <v>1.832921428904525e-05</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02606721644043265</v>
+        <v>0.02606721644043238</v>
       </c>
       <c r="BR3" t="n">
-        <v>135127.5589686317</v>
+        <v>135127.5589680638</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.59329743911817</v>
+        <v>1.593297439111477</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.59329743911817</v>
+        <v>1.593297439111477</v>
       </c>
       <c r="BU3" t="n">
-        <v>336974.4291069511</v>
+        <v>336974.4291069512</v>
       </c>
       <c r="BV3" t="n">
         <v>421784.4310883888</v>
       </c>
       <c r="BW3" t="n">
-        <v>3788.952412251993</v>
+        <v>3788.9524122532</v>
       </c>
       <c r="BX3" t="n">
-        <v>717.855754577085</v>
+        <v>717.8557545770838</v>
       </c>
       <c r="BY3" t="n">
-        <v>1006.77442169932</v>
+        <v>1006.774421699311</v>
       </c>
       <c r="BZ3" t="n">
-        <v>344.8023910003649</v>
+        <v>344.8023910003636</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.9995308396560367</v>
+        <v>0.9995308396560386</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.832921428904539e-05</v>
+        <v>1.832921428904525e-05</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02606721644043265</v>
+        <v>0.02606721644043238</v>
       </c>
       <c r="CD3" t="n">
-        <v>295.5933400569013</v>
+        <v>295.5933400569</v>
       </c>
       <c r="CE3" t="n">
-        <v>135127.5589686317</v>
+        <v>135127.5589680638</v>
       </c>
       <c r="CF3" t="n">
-        <v>1.59329743911817</v>
+        <v>1.593297439111477</v>
       </c>
       <c r="CG3" t="n">
-        <v>336974.4291069511</v>
+        <v>336974.4291069512</v>
       </c>
       <c r="CH3" t="n">
         <v>421784.4310883888</v>
       </c>
       <c r="CI3" t="n">
-        <v>3788.952412251993</v>
+        <v>3788.9524122532</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-698204.6677658311</v>
+        <v>-698204.6677661828</v>
       </c>
       <c r="CK3" t="n">
-        <v>717.855754577085</v>
+        <v>717.8557545770838</v>
       </c>
       <c r="CL3" t="n">
-        <v>1006.77442169932</v>
+        <v>1006.774421699311</v>
       </c>
       <c r="CM3" t="n">
-        <v>1.402474543499964</v>
+        <v>1.402474543499954</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.9995308396560367</v>
+        <v>0.9995308396560386</v>
       </c>
       <c r="CO3" t="n">
-        <v>344.8023910003649</v>
+        <v>344.8023910003636</v>
       </c>
       <c r="CP3" t="n">
-        <v>189425.0434682015</v>
+        <v>189425.0434674043</v>
       </c>
       <c r="CQ3" t="n">
-        <v>5.279133010561344e-06</v>
+        <v>5.27913301058356e-06</v>
       </c>
       <c r="CR3" t="n">
-        <v>135064.8711209255</v>
+        <v>135064.871120358</v>
       </c>
       <c r="CS3" t="n">
-        <v>7.403849659062613e-06</v>
+        <v>7.403849659093719e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.003395609216521706</v>
+        <v>0.003395609216521669</v>
       </c>
       <c r="CU3" t="n">
-        <v>1.832921428904539e-05</v>
+        <v>1.832921428904525e-05</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.02606721644043265</v>
+        <v>0.02606721644043238</v>
       </c>
       <c r="CW3" t="n">
-        <v>135127.5589686317</v>
+        <v>135127.5589680638</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.59329743911817</v>
+        <v>1.593297439111477</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.59329743911817</v>
+        <v>1.593297439111477</v>
       </c>
       <c r="CZ3" t="n">
-        <v>336974.4291069511</v>
+        <v>336974.4291069512</v>
       </c>
       <c r="DA3" t="n">
         <v>421784.4310883888</v>
       </c>
       <c r="DB3" t="n">
-        <v>3788.952412251993</v>
+        <v>3788.9524122532</v>
       </c>
       <c r="DC3" t="n">
-        <v>717.855754577085</v>
+        <v>717.8557545770838</v>
       </c>
       <c r="DD3" t="n">
-        <v>1006.77442169932</v>
+        <v>1006.774421699311</v>
       </c>
       <c r="DE3" t="n">
-        <v>344.8023910003649</v>
+        <v>344.8023910003636</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.9995308396560367</v>
+        <v>0.9995308396560386</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.832921428904539e-05</v>
+        <v>1.832921428904525e-05</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.02606721644043265</v>
+        <v>0.02606721644043238</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.01603672025680231</v>
+        <v>0.01603672025691277</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-1.82663872811376e-07</v>
+        <v>-1.826638727957805e-07</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.01379357719009913</v>
+        <v>0.01379357719010241</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.02515263942089063</v>
+        <v>0.02515263942084537</v>
       </c>
       <c r="DM3" t="n">
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.05498275420391925</v>
+        <v>0.05498275420398776</v>
       </c>
       <c r="DO3" t="n">
-        <v>2.932654119547351e-13</v>
+        <v>6.824756038081858e-12</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.8651581442313412</v>
+        <v>0.8651581442825387</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.8651581442313412</v>
+        <v>0.8651581442825387</v>
       </c>
       <c r="DR3" t="n">
-        <v>498904.0319528173</v>
+        <v>498904.0319641396</v>
       </c>
       <c r="DS3" t="n">
-        <v>2.74309069936922</v>
+        <v>2.743090699398715</v>
       </c>
       <c r="DT3" t="n">
         <v>421784.4310884894</v>
@@ -8249,418 +8249,418 @@
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>1485.215245697473</v>
+        <v>1485.215247437649</v>
       </c>
       <c r="DW3" t="n">
         <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.006324452932728822</v>
+        <v>0.00632445293323642</v>
       </c>
       <c r="DY3" t="n">
-        <v>-7.114856908481123e-08</v>
+        <v>-7.114856908695948e-08</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.009987919798179255</v>
+        <v>0.009987919798942075</v>
       </c>
       <c r="EA3" t="n">
         <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.005469212868539832</v>
+        <v>0.005469212868963287</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.02460453034352661</v>
+        <v>0.02460453034449839</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.002167610487853198</v>
+        <v>0.002167610488926437</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.01188621339030608</v>
+        <v>0.01188621339021743</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.03204893958844315</v>
+        <v>0.03204893958918546</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.04266825628273233</v>
+        <v>0.04266825628375128</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.1133755500928613</v>
+        <v>0.113375550096579</v>
       </c>
       <c r="EI3" t="n">
-        <v>-1.184960463085361e-11</v>
+        <v>-1.207579453099683e-10</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.9631018588372162</v>
+        <v>0.9631018588363677</v>
       </c>
       <c r="EK3" t="n">
-        <v>2.770297730607997</v>
+        <v>2.77029773050796</v>
       </c>
       <c r="EL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EM3" t="n">
-        <v>148.1544008610145</v>
+        <v>148.1544009774269</v>
       </c>
       <c r="EN3" t="n">
-        <v>130.2757508072606</v>
+        <v>130.275750872789</v>
       </c>
       <c r="EO3" t="n">
-        <v>-70.55462597229675</v>
+        <v>-70.55462609575096</v>
       </c>
       <c r="EP3" t="n">
-        <v>-28.43905012525584</v>
+        <v>-28.43905015516947</v>
       </c>
       <c r="EQ3" t="n">
-        <v>269.4451434351224</v>
+        <v>269.4451435748703</v>
       </c>
       <c r="ER3" t="n">
-        <v>130.2757508072606</v>
+        <v>130.275750872789</v>
       </c>
       <c r="ES3" t="n">
-        <v>-235.8578259722968</v>
+        <v>-235.857826095751</v>
       </c>
       <c r="ET3" t="n">
-        <v>-61.08599395097467</v>
+        <v>-61.08599395147005</v>
       </c>
       <c r="EU3" t="n">
-        <v>232.3559345615722</v>
+        <v>232.3559345227813</v>
       </c>
       <c r="EV3" t="n">
-        <v>55847.67422111474</v>
+        <v>55847.67418665405</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.8379437835591165</v>
+        <v>0.8379437831820133</v>
       </c>
       <c r="EX3" t="n">
-        <v>291785.9601137289</v>
+        <v>291785.9600860278</v>
       </c>
       <c r="EY3" t="n">
-        <v>358434.4338143214</v>
+        <v>358434.433775489</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3801.291150575835</v>
+        <v>3801.291150585703</v>
       </c>
       <c r="FA3" t="n">
-        <v>-524818.1240183607</v>
+        <v>-524818.1239120307</v>
       </c>
       <c r="FB3" t="n">
-        <v>715.958413601902</v>
+        <v>715.9584136012965</v>
       </c>
       <c r="FC3" t="n">
-        <v>1004.378133346319</v>
+        <v>1004.378133345417</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.402844235454139</v>
+        <v>1.402844235454067</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9992639248986394</v>
+        <v>0.999263924898572</v>
       </c>
       <c r="FF3" t="n">
-        <v>305.6611132736881</v>
+        <v>305.6611132481448</v>
       </c>
       <c r="FG3" t="n">
-        <v>78288.01191864203</v>
+        <v>78288.01187032515</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.277334773859392e-05</v>
+        <v>1.277334774647722e-05</v>
       </c>
       <c r="FI3" t="n">
-        <v>55806.63194107079</v>
+        <v>55806.63190663161</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.791901724253765e-05</v>
+        <v>1.791901725359577e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.004317179697727467</v>
+        <v>0.004317179698446281</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.510192230262169e-05</v>
+        <v>1.510192230054418e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.02114210372430001</v>
+        <v>0.0211421037211624</v>
       </c>
       <c r="FN3" t="n">
-        <v>55847.67422111474</v>
+        <v>55847.67418665405</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.8379437835591165</v>
+        <v>0.8379437831820133</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.8379437835591165</v>
+        <v>0.8379437831820133</v>
       </c>
       <c r="FQ3" t="n">
-        <v>291785.9601137289</v>
+        <v>291785.9600860278</v>
       </c>
       <c r="FR3" t="n">
-        <v>358434.4338143214</v>
+        <v>358434.433775489</v>
       </c>
       <c r="FS3" t="n">
-        <v>3801.291150575835</v>
+        <v>3801.291150585703</v>
       </c>
       <c r="FT3" t="n">
-        <v>715.958413601902</v>
+        <v>715.9584136012965</v>
       </c>
       <c r="FU3" t="n">
-        <v>1004.378133346319</v>
+        <v>1004.378133345417</v>
       </c>
       <c r="FV3" t="n">
-        <v>305.6611132736881</v>
+        <v>305.6611132481448</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.9992639248986394</v>
+        <v>0.999263924898572</v>
       </c>
       <c r="FX3" t="n">
-        <v>1.510192230262169e-05</v>
+        <v>1.510192230054418e-05</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.02114210372430001</v>
+        <v>0.0211421037211624</v>
       </c>
       <c r="FZ3" t="n">
-        <v>243.3162037140146</v>
+        <v>243.3162036923593</v>
       </c>
       <c r="GA3" t="n">
-        <v>65596.84682479146</v>
+        <v>65596.84680216036</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.9398584233306811</v>
+        <v>0.9398584230901156</v>
       </c>
       <c r="GC3" t="n">
-        <v>299614.9054848554</v>
+        <v>299614.9054693919</v>
       </c>
       <c r="GD3" t="n">
-        <v>369409.2970617575</v>
+        <v>369409.2970400794</v>
       </c>
       <c r="GE3" t="n">
-        <v>3801.291150584481</v>
+        <v>3801.291150594348</v>
       </c>
       <c r="GF3" t="n">
-        <v>-555506.4349101369</v>
+        <v>-555506.4348518981</v>
       </c>
       <c r="GG3" t="n">
-        <v>716.1491613436518</v>
+        <v>716.1491613432191</v>
       </c>
       <c r="GH3" t="n">
-        <v>1004.63979299424</v>
+        <v>1004.639792993617</v>
       </c>
       <c r="GI3" t="n">
-        <v>1.402835955444418</v>
+        <v>1.402835955444395</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9992939630950215</v>
+        <v>0.9992939630949785</v>
       </c>
       <c r="GK3" t="n">
-        <v>312.7956381833698</v>
+        <v>312.7956381694342</v>
       </c>
       <c r="GL3" t="n">
-        <v>91956.79257189353</v>
+        <v>91956.79254016266</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.08746724633548e-05</v>
+        <v>1.087467246710725e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>65550.63848699375</v>
+        <v>65550.63846437572</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.525538153527544e-05</v>
+        <v>1.525538154053926e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.004123092681708618</v>
+        <v>0.004123092682074393</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.568368842505887e-05</v>
+        <v>1.568368842391906e-05</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.02202228901113618</v>
+        <v>0.02202228900940812</v>
       </c>
       <c r="GS3" t="n">
-        <v>65596.84682479146</v>
+        <v>65596.84680216036</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.9398584233306811</v>
+        <v>0.9398584230901156</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.9398584233306811</v>
+        <v>0.9398584230901156</v>
       </c>
       <c r="GV3" t="n">
-        <v>299614.9054848554</v>
+        <v>299614.9054693919</v>
       </c>
       <c r="GW3" t="n">
-        <v>369409.2970617575</v>
+        <v>369409.2970400794</v>
       </c>
       <c r="GX3" t="n">
-        <v>3801.291150584481</v>
+        <v>3801.291150594348</v>
       </c>
       <c r="GY3" t="n">
-        <v>716.1491613436518</v>
+        <v>716.1491613432191</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1004.63979299424</v>
+        <v>1004.639792993617</v>
       </c>
       <c r="HA3" t="n">
-        <v>312.7956381833698</v>
+        <v>312.7956381694342</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.9992939630950215</v>
+        <v>0.9992939630949785</v>
       </c>
       <c r="HC3" t="n">
-        <v>1.568368842505887e-05</v>
+        <v>1.568368842391906e-05</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.02202228901113618</v>
+        <v>0.02202228900940812</v>
       </c>
       <c r="HE3" t="n">
-        <v>268.5987517938989</v>
+        <v>268.5987517926215</v>
       </c>
       <c r="HF3" t="n">
-        <v>92640.69424680136</v>
+        <v>92640.69424208539</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.202278025806417</v>
+        <v>1.202278025750914</v>
       </c>
       <c r="HH3" t="n">
-        <v>317680.4743431935</v>
+        <v>317680.4743422876</v>
       </c>
       <c r="HI3" t="n">
-        <v>394734.7764749016</v>
+        <v>394734.7764736305</v>
       </c>
       <c r="HJ3" t="n">
-        <v>3801.291150575834</v>
+        <v>3801.291150585703</v>
       </c>
       <c r="HK3" t="n">
-        <v>-626287.2817749613</v>
+        <v>-626287.2817740275</v>
       </c>
       <c r="HL3" t="n">
-        <v>716.7867281707425</v>
+        <v>716.7867281706922</v>
       </c>
       <c r="HM3" t="n">
-        <v>1005.444386846792</v>
+        <v>1005.444386846678</v>
       </c>
       <c r="HN3" t="n">
-        <v>1.402710663202025</v>
+        <v>1.402710663201964</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.9993938469742906</v>
+        <v>0.9993938469743051</v>
       </c>
       <c r="HP3" t="n">
-        <v>328.6634881146063</v>
+        <v>328.6634881138223</v>
       </c>
       <c r="HQ3" t="n">
-        <v>129869.697741413</v>
+        <v>129869.6977347981</v>
       </c>
       <c r="HR3" t="n">
-        <v>7.700025620996873e-06</v>
+        <v>7.700025621389073e-06</v>
       </c>
       <c r="HS3" t="n">
-        <v>92584.80822050228</v>
+        <v>92584.80821579049</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.080090804550111e-05</v>
+        <v>1.080090804605078e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.003735701238579984</v>
+        <v>0.003735701238597285</v>
       </c>
       <c r="HV3" t="n">
-        <v>1.698832642419336e-05</v>
+        <v>1.698832642412822e-05</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.02400816045508289</v>
+        <v>0.02400816045498293</v>
       </c>
       <c r="HX3" t="n">
-        <v>92640.69424680136</v>
+        <v>92640.69424208539</v>
       </c>
       <c r="HY3" t="n">
-        <v>1.202278025806417</v>
+        <v>1.202278025750914</v>
       </c>
       <c r="HZ3" t="n">
-        <v>1.202278025806417</v>
+        <v>1.202278025750914</v>
       </c>
       <c r="IA3" t="n">
-        <v>317680.4743431935</v>
+        <v>317680.4743422876</v>
       </c>
       <c r="IB3" t="n">
-        <v>394734.7764749016</v>
+        <v>394734.7764736305</v>
       </c>
       <c r="IC3" t="n">
-        <v>3801.291150575834</v>
+        <v>3801.291150585703</v>
       </c>
       <c r="ID3" t="n">
-        <v>716.7867281707425</v>
+        <v>716.7867281706922</v>
       </c>
       <c r="IE3" t="n">
-        <v>1005.444386846792</v>
+        <v>1005.444386846678</v>
       </c>
       <c r="IF3" t="n">
-        <v>328.6634881146063</v>
+        <v>328.6634881138223</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.9993938469742906</v>
+        <v>0.9993938469743051</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.698832642419336e-05</v>
+        <v>1.698832642412822e-05</v>
       </c>
       <c r="II3" t="n">
-        <v>0.02400816045508289</v>
+        <v>0.02400816045498293</v>
       </c>
       <c r="IJ3" t="n">
-        <v>0.02448487147066064</v>
+        <v>0.02448487146978578</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.002204429594598244</v>
+        <v>0.002204429596415247</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.01189216561975698</v>
+        <v>0.01189216561972087</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.03201488114718025</v>
+        <v>0.03201488114762176</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.04270408032874099</v>
+        <v>0.04270408033007254</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.1133004281609371</v>
+        <v>0.1133004281636162</v>
       </c>
       <c r="IP3" t="n">
-        <v>4.689040822292156e-11</v>
+        <v>-1.731451093611724e-11</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.4847015025046952</v>
+        <v>0.4847015029260551</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.8815159394968963</v>
+        <v>0.881515940027761</v>
       </c>
       <c r="IS3" t="n">
-        <v>389607.6030465809</v>
+        <v>389607.603126911</v>
       </c>
       <c r="IT3" t="n">
-        <v>2.743090699948817</v>
+        <v>2.743090700137039</v>
       </c>
       <c r="IU3" t="n">
-        <v>381072.2025096812</v>
+        <v>381072.2025084102</v>
       </c>
       <c r="IV3" t="n">
         <v>0</v>
       </c>
       <c r="IW3" t="n">
-        <v>2819.835633976443</v>
+        <v>2819.835633911833</v>
       </c>
       <c r="IX3" t="n">
-        <v>6.468939789103466</v>
+        <v>6.4689397907608</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.008974662812864716</v>
+        <v>0.00897466280290188</v>
       </c>
       <c r="IZ3" t="n">
-        <v>0.0007906500537300371</v>
+        <v>0.0007906500532125745</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.01169005960692206</v>
+        <v>0.01169005959375389</v>
       </c>
       <c r="JB3" t="n">
-        <v>0.01556352458689251</v>
+        <v>0.0155635245693723</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.004335573807358631</v>
+        <v>0.004335573802342107</v>
       </c>
     </row>
   </sheetData>
@@ -9441,16 +9441,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H2" t="n">
-        <v>1.761859059330013e-11</v>
+        <v>1.494281741696882e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -9481,7 +9481,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>1.119682636148447e-10</v>
+        <v>1.732577028841542e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
